--- a/Literature-review/data/data_extraction.xlsx
+++ b/Literature-review/data/data_extraction.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\enric\Desktop\Paper Taxometrics Neurodevelopmental\Review\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\enric\Desktop\Paper Taxometrics Neurodevelopmental\__GITHUB\Literature-review\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{142E44D3-EE77-4662-AAAE-89838E08A335}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C46EB355-182C-4B8C-AE0B-248EAC45BCBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="231">
   <si>
     <t>ID_article</t>
   </si>
@@ -715,6 +715,9 @@
   </si>
   <si>
     <t>potential risk of artificial admixture as different scales might have been used in alternative to each other for diagnostic identification and inclusion, but this is very minor</t>
+  </si>
+  <si>
+    <t>MAMBAC; MAXSLOPE</t>
   </si>
 </sst>
 </file>
@@ -1424,9 +1427,9 @@
   </sheetPr>
   <dimension ref="A1:AA86"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Y6" sqref="Y6"/>
+      <selection pane="bottomLeft" activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1439,16 +1442,16 @@
     <col min="8" max="8" width="15.6328125" style="57" customWidth="1"/>
     <col min="9" max="9" width="14.7265625" style="57" customWidth="1"/>
     <col min="10" max="10" width="14.36328125" style="57" customWidth="1"/>
-    <col min="11" max="11" width="17.7265625" style="57" customWidth="1"/>
-    <col min="12" max="12" width="18.08984375" style="57" customWidth="1"/>
-    <col min="13" max="13" width="15.453125" style="57" customWidth="1"/>
-    <col min="14" max="14" width="17" style="57" customWidth="1"/>
-    <col min="15" max="16" width="12.36328125" style="57" customWidth="1"/>
-    <col min="17" max="17" width="24.08984375" style="57" customWidth="1"/>
-    <col min="18" max="18" width="19.08984375" style="57" customWidth="1"/>
-    <col min="19" max="19" width="16" style="57" customWidth="1"/>
-    <col min="20" max="20" width="22.6328125" style="57" customWidth="1"/>
-    <col min="21" max="21" width="21.453125" style="57" customWidth="1"/>
+    <col min="11" max="11" width="22.6328125" style="57" customWidth="1"/>
+    <col min="12" max="12" width="21.453125" style="57" customWidth="1"/>
+    <col min="13" max="13" width="17.7265625" style="57" customWidth="1"/>
+    <col min="14" max="14" width="18.08984375" style="57" customWidth="1"/>
+    <col min="15" max="15" width="15.453125" style="57" customWidth="1"/>
+    <col min="16" max="16" width="17" style="57" customWidth="1"/>
+    <col min="17" max="18" width="12.36328125" style="57" customWidth="1"/>
+    <col min="19" max="19" width="24.08984375" style="57" customWidth="1"/>
+    <col min="20" max="20" width="19.08984375" style="57" customWidth="1"/>
+    <col min="21" max="21" width="16" style="57" customWidth="1"/>
     <col min="22" max="22" width="34.6328125" style="57" customWidth="1"/>
     <col min="23" max="23" width="12.6328125" style="61"/>
     <col min="24" max="24" width="16.7265625" style="61" customWidth="1"/>
@@ -1488,37 +1491,37 @@
         <v>9</v>
       </c>
       <c r="K1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" s="4" t="s">
-        <v>214</v>
       </c>
       <c r="V1" s="5" t="s">
         <v>19</v>
@@ -1571,29 +1574,29 @@
       <c r="K2" s="8">
         <v>1</v>
       </c>
-      <c r="L2" s="8">
-        <v>1</v>
-      </c>
-      <c r="M2" s="8" t="s">
+      <c r="L2" s="9">
+        <v>1</v>
+      </c>
+      <c r="M2" s="8">
+        <v>1</v>
+      </c>
+      <c r="N2" s="8">
+        <v>1</v>
+      </c>
+      <c r="O2" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="N2" s="8">
+      <c r="P2" s="8">
         <v>4</v>
       </c>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8" t="s">
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8"/>
-      <c r="S2" s="8" t="s">
+      <c r="S2" s="8"/>
+      <c r="T2" s="8"/>
+      <c r="U2" s="8" t="s">
         <v>28</v>
-      </c>
-      <c r="T2" s="8">
-        <v>1</v>
-      </c>
-      <c r="U2" s="9">
-        <v>1</v>
       </c>
       <c r="V2" s="10" t="s">
         <v>29</v>
@@ -1646,29 +1649,29 @@
       <c r="K3" s="13">
         <v>1</v>
       </c>
-      <c r="L3" s="13">
-        <v>1</v>
-      </c>
-      <c r="M3" s="13" t="s">
+      <c r="L3" s="14">
+        <v>1</v>
+      </c>
+      <c r="M3" s="13">
+        <v>1</v>
+      </c>
+      <c r="N3" s="13">
+        <v>1</v>
+      </c>
+      <c r="O3" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="N3" s="13">
+      <c r="P3" s="13">
         <v>3</v>
       </c>
-      <c r="O3" s="13"/>
-      <c r="P3" s="13" t="s">
+      <c r="Q3" s="13"/>
+      <c r="R3" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="Q3" s="13"/>
-      <c r="R3" s="13"/>
-      <c r="S3" s="13" t="s">
+      <c r="S3" s="13"/>
+      <c r="T3" s="13"/>
+      <c r="U3" s="13" t="s">
         <v>31</v>
-      </c>
-      <c r="T3" s="13">
-        <v>1</v>
-      </c>
-      <c r="U3" s="14">
-        <v>1</v>
       </c>
       <c r="V3" s="10" t="s">
         <v>32</v>
@@ -1716,32 +1719,32 @@
       <c r="J4" s="8">
         <v>488</v>
       </c>
-      <c r="K4" s="13">
-        <v>1</v>
-      </c>
-      <c r="L4" s="8">
-        <v>1</v>
-      </c>
-      <c r="M4" s="8" t="s">
+      <c r="K4" s="8">
+        <v>1</v>
+      </c>
+      <c r="L4" s="9">
+        <v>1</v>
+      </c>
+      <c r="M4" s="13">
+        <v>1</v>
+      </c>
+      <c r="N4" s="8">
+        <v>1</v>
+      </c>
+      <c r="O4" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="N4" s="8">
+      <c r="P4" s="8">
         <v>4</v>
       </c>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8" t="s">
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="8"/>
-      <c r="S4" s="8" t="s">
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="8" t="s">
         <v>28</v>
-      </c>
-      <c r="T4" s="8">
-        <v>1</v>
-      </c>
-      <c r="U4" s="9">
-        <v>1</v>
       </c>
       <c r="V4" s="10" t="s">
         <v>29</v>
@@ -1788,31 +1791,31 @@
         <v>520</v>
       </c>
       <c r="K5" s="13">
-        <v>1</v>
-      </c>
-      <c r="L5" s="13">
-        <v>1</v>
-      </c>
-      <c r="M5" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="L5" s="14">
+        <v>0</v>
+      </c>
+      <c r="M5" s="13">
+        <v>1</v>
+      </c>
+      <c r="N5" s="13">
+        <v>1</v>
+      </c>
+      <c r="O5" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="N5" s="13">
+      <c r="P5" s="13">
         <v>3</v>
       </c>
-      <c r="O5" s="13"/>
-      <c r="P5" s="13" t="s">
+      <c r="Q5" s="13"/>
+      <c r="R5" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="Q5" s="13"/>
-      <c r="R5" s="13"/>
-      <c r="S5" s="13" t="s">
+      <c r="S5" s="13"/>
+      <c r="T5" s="13"/>
+      <c r="U5" s="13" t="s">
         <v>31</v>
-      </c>
-      <c r="T5" s="13">
-        <v>0</v>
-      </c>
-      <c r="U5" s="14">
-        <v>0</v>
       </c>
       <c r="V5" s="10"/>
       <c r="W5" s="59"/>
@@ -1856,29 +1859,29 @@
       <c r="J6" s="8">
         <v>517</v>
       </c>
-      <c r="K6" s="13">
-        <v>1</v>
-      </c>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8" t="s">
+      <c r="K6" s="8">
+        <v>1</v>
+      </c>
+      <c r="L6" s="9"/>
+      <c r="M6" s="13">
+        <v>1</v>
+      </c>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="N6" s="8">
+      <c r="P6" s="8">
         <v>4</v>
       </c>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8" t="s">
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="8"/>
-      <c r="S6" s="8" t="s">
+      <c r="S6" s="8"/>
+      <c r="T6" s="8"/>
+      <c r="U6" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="T6" s="8">
-        <v>1</v>
-      </c>
-      <c r="U6" s="9"/>
       <c r="V6" s="10" t="s">
         <v>29</v>
       </c>
@@ -1926,26 +1929,26 @@
       <c r="K7" s="13">
         <v>1</v>
       </c>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13" t="s">
+      <c r="L7" s="14"/>
+      <c r="M7" s="13">
+        <v>1</v>
+      </c>
+      <c r="N7" s="13"/>
+      <c r="O7" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="N7" s="13">
+      <c r="P7" s="13">
         <v>3</v>
       </c>
-      <c r="O7" s="13"/>
-      <c r="P7" s="13" t="s">
+      <c r="Q7" s="13"/>
+      <c r="R7" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="Q7" s="13"/>
-      <c r="R7" s="13"/>
-      <c r="S7" s="13" t="s">
+      <c r="S7" s="13"/>
+      <c r="T7" s="13"/>
+      <c r="U7" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="T7" s="13">
-        <v>1</v>
-      </c>
-      <c r="U7" s="14"/>
       <c r="V7" s="10" t="s">
         <v>32</v>
       </c>
@@ -1991,31 +1994,31 @@
         <v>600</v>
       </c>
       <c r="K8" s="16">
-        <v>1</v>
-      </c>
-      <c r="L8" s="16">
-        <v>1</v>
-      </c>
-      <c r="M8" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="L8" s="17">
+        <v>1</v>
+      </c>
+      <c r="M8" s="16">
+        <v>1</v>
+      </c>
+      <c r="N8" s="16">
+        <v>1</v>
+      </c>
+      <c r="O8" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="N8" s="16">
+      <c r="P8" s="16">
         <v>9</v>
       </c>
-      <c r="O8" s="16"/>
-      <c r="P8" s="16" t="s">
+      <c r="Q8" s="16"/>
+      <c r="R8" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="Q8" s="16"/>
-      <c r="R8" s="16"/>
-      <c r="S8" s="16">
+      <c r="S8" s="16"/>
+      <c r="T8" s="16"/>
+      <c r="U8" s="16">
         <v>2.2200000000000002</v>
-      </c>
-      <c r="T8" s="16">
-        <v>0</v>
-      </c>
-      <c r="U8" s="17">
-        <v>1</v>
       </c>
       <c r="V8" s="18"/>
       <c r="W8" s="60"/>
@@ -2058,31 +2061,31 @@
         <v>600</v>
       </c>
       <c r="K9" s="21">
-        <v>1</v>
-      </c>
-      <c r="L9" s="21">
-        <v>1</v>
-      </c>
-      <c r="M9" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="L9" s="22">
+        <v>1</v>
+      </c>
+      <c r="M9" s="21">
+        <v>1</v>
+      </c>
+      <c r="N9" s="21">
+        <v>1</v>
+      </c>
+      <c r="O9" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="N9" s="21">
+      <c r="P9" s="21">
         <v>9</v>
       </c>
-      <c r="O9" s="21"/>
-      <c r="P9" s="21" t="s">
+      <c r="Q9" s="21"/>
+      <c r="R9" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="Q9" s="21"/>
-      <c r="R9" s="21"/>
-      <c r="S9" s="21">
+      <c r="S9" s="21"/>
+      <c r="T9" s="21"/>
+      <c r="U9" s="21">
         <v>2.04</v>
-      </c>
-      <c r="T9" s="21">
-        <v>0</v>
-      </c>
-      <c r="U9" s="22">
-        <v>1</v>
       </c>
       <c r="V9" s="18"/>
       <c r="W9" s="60"/>
@@ -2125,31 +2128,31 @@
         <v>600</v>
       </c>
       <c r="K10" s="24">
-        <v>1</v>
-      </c>
-      <c r="L10" s="24">
-        <v>1</v>
-      </c>
-      <c r="M10" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="L10" s="25">
+        <v>1</v>
+      </c>
+      <c r="M10" s="24">
+        <v>1</v>
+      </c>
+      <c r="N10" s="24">
+        <v>1</v>
+      </c>
+      <c r="O10" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="N10" s="24">
+      <c r="P10" s="24">
         <v>2</v>
       </c>
-      <c r="O10" s="24"/>
-      <c r="P10" s="24" t="s">
+      <c r="Q10" s="24"/>
+      <c r="R10" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="Q10" s="24"/>
-      <c r="R10" s="24"/>
-      <c r="S10" s="24">
+      <c r="S10" s="24"/>
+      <c r="T10" s="24"/>
+      <c r="U10" s="24">
         <v>3.26</v>
-      </c>
-      <c r="T10" s="24">
-        <v>0</v>
-      </c>
-      <c r="U10" s="25">
-        <v>1</v>
       </c>
       <c r="V10" s="18"/>
       <c r="W10" s="60"/>
@@ -2192,28 +2195,28 @@
         <v>432</v>
       </c>
       <c r="K11" s="21">
-        <v>1</v>
-      </c>
-      <c r="L11" s="21"/>
-      <c r="M11" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="L11" s="22"/>
+      <c r="M11" s="21">
+        <v>1</v>
+      </c>
+      <c r="N11" s="21"/>
+      <c r="O11" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="N11" s="21">
+      <c r="P11" s="21">
         <v>9</v>
       </c>
-      <c r="O11" s="21"/>
-      <c r="P11" s="21" t="s">
+      <c r="Q11" s="21"/>
+      <c r="R11" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="Q11" s="21"/>
-      <c r="R11" s="21"/>
-      <c r="S11" s="21">
+      <c r="S11" s="21"/>
+      <c r="T11" s="21"/>
+      <c r="U11" s="21">
         <v>2.2200000000000002</v>
       </c>
-      <c r="T11" s="21">
-        <v>0</v>
-      </c>
-      <c r="U11" s="22"/>
       <c r="V11" s="18"/>
       <c r="W11" s="60"/>
       <c r="X11" s="60" t="s">
@@ -2255,28 +2258,28 @@
         <v>432</v>
       </c>
       <c r="K12" s="16">
-        <v>1</v>
-      </c>
-      <c r="L12" s="16"/>
-      <c r="M12" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="L12" s="17"/>
+      <c r="M12" s="16">
+        <v>1</v>
+      </c>
+      <c r="N12" s="16"/>
+      <c r="O12" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="N12" s="16">
+      <c r="P12" s="16">
         <v>9</v>
       </c>
-      <c r="O12" s="16"/>
-      <c r="P12" s="16" t="s">
+      <c r="Q12" s="16"/>
+      <c r="R12" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="Q12" s="16"/>
-      <c r="R12" s="16"/>
-      <c r="S12" s="16">
+      <c r="S12" s="16"/>
+      <c r="T12" s="16"/>
+      <c r="U12" s="16">
         <v>2.04</v>
       </c>
-      <c r="T12" s="16">
-        <v>0</v>
-      </c>
-      <c r="U12" s="17"/>
       <c r="V12" s="18"/>
       <c r="W12" s="60"/>
       <c r="X12" s="60" t="s">
@@ -2318,28 +2321,28 @@
         <v>432</v>
       </c>
       <c r="K13" s="27">
-        <v>1</v>
-      </c>
-      <c r="L13" s="27"/>
-      <c r="M13" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="L13" s="28"/>
+      <c r="M13" s="27">
+        <v>1</v>
+      </c>
+      <c r="N13" s="27"/>
+      <c r="O13" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="N13" s="27">
+      <c r="P13" s="27">
         <v>2</v>
       </c>
-      <c r="O13" s="27"/>
-      <c r="P13" s="27" t="s">
+      <c r="Q13" s="27"/>
+      <c r="R13" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="Q13" s="27"/>
-      <c r="R13" s="27"/>
-      <c r="S13" s="27">
+      <c r="S13" s="27"/>
+      <c r="T13" s="27"/>
+      <c r="U13" s="27">
         <v>3.26</v>
       </c>
-      <c r="T13" s="27">
-        <v>0</v>
-      </c>
-      <c r="U13" s="28"/>
       <c r="V13" s="18"/>
       <c r="W13" s="60"/>
       <c r="X13" s="60" t="s">
@@ -2383,31 +2386,31 @@
       <c r="K14" s="8">
         <v>0</v>
       </c>
-      <c r="L14" s="8">
-        <v>1</v>
-      </c>
-      <c r="M14" s="8" t="s">
+      <c r="L14" s="9">
+        <v>1</v>
+      </c>
+      <c r="M14" s="8">
+        <v>0</v>
+      </c>
+      <c r="N14" s="8">
+        <v>1</v>
+      </c>
+      <c r="O14" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="N14" s="8">
+      <c r="P14" s="8">
         <v>3</v>
       </c>
-      <c r="O14" s="8" t="s">
+      <c r="Q14" s="8" t="s">
         <v>56</v>
-      </c>
-      <c r="P14" s="8"/>
-      <c r="Q14" s="8" t="s">
-        <v>57</v>
       </c>
       <c r="R14" s="8"/>
       <c r="S14" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="T14" s="8"/>
+      <c r="U14" s="8" t="s">
         <v>58</v>
-      </c>
-      <c r="T14" s="8">
-        <v>0</v>
-      </c>
-      <c r="U14" s="9">
-        <v>1</v>
       </c>
       <c r="V14" s="10"/>
       <c r="W14" s="59"/>
@@ -2452,31 +2455,31 @@
       <c r="K15" s="13">
         <v>0</v>
       </c>
-      <c r="L15" s="13">
-        <v>1</v>
-      </c>
-      <c r="M15" s="13" t="s">
+      <c r="L15" s="14">
+        <v>1</v>
+      </c>
+      <c r="M15" s="13">
+        <v>0</v>
+      </c>
+      <c r="N15" s="13">
+        <v>1</v>
+      </c>
+      <c r="O15" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="N15" s="13">
+      <c r="P15" s="13">
         <v>3</v>
       </c>
-      <c r="O15" s="13" t="s">
+      <c r="Q15" s="13" t="s">
         <v>60</v>
-      </c>
-      <c r="P15" s="13"/>
-      <c r="Q15" s="13" t="s">
-        <v>61</v>
       </c>
       <c r="R15" s="13"/>
       <c r="S15" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="T15" s="13"/>
+      <c r="U15" s="13" t="s">
         <v>62</v>
-      </c>
-      <c r="T15" s="13">
-        <v>0</v>
-      </c>
-      <c r="U15" s="14">
-        <v>1</v>
       </c>
       <c r="V15" s="10"/>
       <c r="W15" s="59"/>
@@ -2521,31 +2524,31 @@
       <c r="K16" s="16">
         <v>0</v>
       </c>
-      <c r="L16" s="16">
-        <v>1</v>
-      </c>
-      <c r="M16" s="16" t="s">
+      <c r="L16" s="17">
+        <v>1</v>
+      </c>
+      <c r="M16" s="16">
+        <v>0</v>
+      </c>
+      <c r="N16" s="16">
+        <v>1</v>
+      </c>
+      <c r="O16" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="N16" s="16">
+      <c r="P16" s="16">
         <v>4</v>
       </c>
-      <c r="O16" s="16">
+      <c r="Q16" s="16">
         <v>0.03</v>
       </c>
-      <c r="P16" s="16"/>
-      <c r="Q16" s="16" t="s">
+      <c r="R16" s="16"/>
+      <c r="S16" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="R16" s="16"/>
-      <c r="S16" s="16">
+      <c r="T16" s="16"/>
+      <c r="U16" s="16">
         <v>2.33</v>
-      </c>
-      <c r="T16" s="16">
-        <v>0</v>
-      </c>
-      <c r="U16" s="17">
-        <v>1</v>
       </c>
       <c r="V16" s="18"/>
       <c r="W16" s="60"/>
@@ -2592,31 +2595,31 @@
       <c r="K17" s="21">
         <v>0</v>
       </c>
-      <c r="L17" s="21">
-        <v>1</v>
-      </c>
-      <c r="M17" s="21" t="s">
+      <c r="L17" s="22">
+        <v>1</v>
+      </c>
+      <c r="M17" s="21">
+        <v>0</v>
+      </c>
+      <c r="N17" s="21">
+        <v>1</v>
+      </c>
+      <c r="O17" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="N17" s="21">
+      <c r="P17" s="21">
         <v>3</v>
       </c>
-      <c r="O17" s="21">
+      <c r="Q17" s="21">
         <v>-0.3</v>
       </c>
-      <c r="P17" s="21"/>
-      <c r="Q17" s="21" t="s">
+      <c r="R17" s="21"/>
+      <c r="S17" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="R17" s="21"/>
-      <c r="S17" s="21">
+      <c r="T17" s="21"/>
+      <c r="U17" s="21">
         <v>1.23</v>
-      </c>
-      <c r="T17" s="21">
-        <v>0</v>
-      </c>
-      <c r="U17" s="22">
-        <v>1</v>
       </c>
       <c r="V17" s="18"/>
       <c r="W17" s="60"/>
@@ -2658,34 +2661,34 @@
       <c r="J18" s="30">
         <v>338</v>
       </c>
-      <c r="K18" s="30">
-        <v>0</v>
-      </c>
-      <c r="L18" s="30">
-        <v>1</v>
-      </c>
-      <c r="M18" s="16" t="s">
+      <c r="K18" s="27">
+        <v>0</v>
+      </c>
+      <c r="L18" s="28">
+        <v>1</v>
+      </c>
+      <c r="M18" s="30">
+        <v>0</v>
+      </c>
+      <c r="N18" s="30">
+        <v>1</v>
+      </c>
+      <c r="O18" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="N18" s="30">
+      <c r="P18" s="30">
         <v>3</v>
       </c>
-      <c r="O18" s="27">
+      <c r="Q18" s="27">
         <v>0.47</v>
       </c>
-      <c r="P18" s="27"/>
-      <c r="Q18" s="30" t="s">
+      <c r="R18" s="27"/>
+      <c r="S18" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="R18" s="30"/>
-      <c r="S18" s="30">
+      <c r="T18" s="30"/>
+      <c r="U18" s="30">
         <v>3.69</v>
-      </c>
-      <c r="T18" s="27">
-        <v>0</v>
-      </c>
-      <c r="U18" s="28">
-        <v>1</v>
       </c>
       <c r="V18" s="31"/>
       <c r="W18" s="60"/>
@@ -2727,34 +2730,34 @@
       <c r="J19" s="30">
         <v>338</v>
       </c>
-      <c r="K19" s="30">
-        <v>0</v>
-      </c>
-      <c r="L19" s="30">
-        <v>1</v>
-      </c>
-      <c r="M19" s="21" t="s">
+      <c r="K19" s="27">
+        <v>0</v>
+      </c>
+      <c r="L19" s="28">
+        <v>1</v>
+      </c>
+      <c r="M19" s="30">
+        <v>0</v>
+      </c>
+      <c r="N19" s="30">
+        <v>1</v>
+      </c>
+      <c r="O19" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="N19" s="30">
+      <c r="P19" s="30">
         <v>3</v>
       </c>
-      <c r="O19" s="27">
+      <c r="Q19" s="27">
         <v>-0.74</v>
       </c>
-      <c r="P19" s="27"/>
-      <c r="Q19" s="30" t="s">
+      <c r="R19" s="27"/>
+      <c r="S19" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="R19" s="30"/>
-      <c r="S19" s="30">
+      <c r="T19" s="30"/>
+      <c r="U19" s="30">
         <v>3.09</v>
-      </c>
-      <c r="T19" s="27">
-        <v>0</v>
-      </c>
-      <c r="U19" s="28">
-        <v>1</v>
       </c>
       <c r="V19" s="31"/>
       <c r="W19" s="60"/>
@@ -2796,34 +2799,34 @@
       <c r="J20" s="30">
         <v>384</v>
       </c>
-      <c r="K20" s="30">
-        <v>0</v>
-      </c>
-      <c r="L20" s="30">
-        <v>1</v>
-      </c>
-      <c r="M20" s="16" t="s">
+      <c r="K20" s="27">
+        <v>0</v>
+      </c>
+      <c r="L20" s="28">
+        <v>1</v>
+      </c>
+      <c r="M20" s="30">
+        <v>0</v>
+      </c>
+      <c r="N20" s="30">
+        <v>1</v>
+      </c>
+      <c r="O20" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="N20" s="30">
+      <c r="P20" s="30">
         <v>3</v>
       </c>
-      <c r="O20" s="27">
+      <c r="Q20" s="27">
         <v>-1.04</v>
       </c>
-      <c r="P20" s="27"/>
-      <c r="Q20" s="30" t="s">
+      <c r="R20" s="27"/>
+      <c r="S20" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="R20" s="30"/>
-      <c r="S20" s="30">
+      <c r="T20" s="30"/>
+      <c r="U20" s="30">
         <v>2.13</v>
-      </c>
-      <c r="T20" s="27">
-        <v>0</v>
-      </c>
-      <c r="U20" s="28">
-        <v>1</v>
       </c>
       <c r="V20" s="31"/>
       <c r="W20" s="60"/>
@@ -2865,34 +2868,34 @@
       <c r="J21" s="30">
         <v>384</v>
       </c>
-      <c r="K21" s="30">
-        <v>0</v>
-      </c>
-      <c r="L21" s="30">
-        <v>1</v>
-      </c>
-      <c r="M21" s="21" t="s">
+      <c r="K21" s="27">
+        <v>0</v>
+      </c>
+      <c r="L21" s="28">
+        <v>1</v>
+      </c>
+      <c r="M21" s="30">
+        <v>0</v>
+      </c>
+      <c r="N21" s="30">
+        <v>1</v>
+      </c>
+      <c r="O21" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="N21" s="30">
+      <c r="P21" s="30">
         <v>3</v>
       </c>
-      <c r="O21" s="27">
+      <c r="Q21" s="27">
         <v>0.18</v>
       </c>
-      <c r="P21" s="27"/>
-      <c r="Q21" s="30" t="s">
+      <c r="R21" s="27"/>
+      <c r="S21" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="R21" s="30"/>
-      <c r="S21" s="30">
+      <c r="T21" s="30"/>
+      <c r="U21" s="30">
         <v>1.03</v>
-      </c>
-      <c r="T21" s="27">
-        <v>0</v>
-      </c>
-      <c r="U21" s="28">
-        <v>1</v>
       </c>
       <c r="V21" s="31"/>
       <c r="W21" s="60"/>
@@ -2934,34 +2937,34 @@
       <c r="J22" s="30">
         <v>394</v>
       </c>
-      <c r="K22" s="30">
-        <v>0</v>
-      </c>
-      <c r="L22" s="30">
-        <v>1</v>
-      </c>
-      <c r="M22" s="16" t="s">
+      <c r="K22" s="27">
+        <v>0</v>
+      </c>
+      <c r="L22" s="28">
+        <v>1</v>
+      </c>
+      <c r="M22" s="30">
+        <v>0</v>
+      </c>
+      <c r="N22" s="30">
+        <v>1</v>
+      </c>
+      <c r="O22" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="N22" s="30">
+      <c r="P22" s="30">
         <v>4</v>
       </c>
-      <c r="O22" s="27">
+      <c r="Q22" s="27">
         <v>0.02</v>
       </c>
-      <c r="P22" s="27"/>
-      <c r="Q22" s="30" t="s">
+      <c r="R22" s="27"/>
+      <c r="S22" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="R22" s="30"/>
-      <c r="S22" s="30">
+      <c r="T22" s="30"/>
+      <c r="U22" s="30">
         <v>2.23</v>
-      </c>
-      <c r="T22" s="27">
-        <v>0</v>
-      </c>
-      <c r="U22" s="28">
-        <v>1</v>
       </c>
       <c r="V22" s="31"/>
       <c r="W22" s="60"/>
@@ -3003,34 +3006,34 @@
       <c r="J23" s="30">
         <v>390</v>
       </c>
-      <c r="K23" s="30">
-        <v>0</v>
-      </c>
-      <c r="L23" s="30">
-        <v>1</v>
-      </c>
-      <c r="M23" s="21" t="s">
+      <c r="K23" s="27">
+        <v>0</v>
+      </c>
+      <c r="L23" s="28">
+        <v>1</v>
+      </c>
+      <c r="M23" s="30">
+        <v>0</v>
+      </c>
+      <c r="N23" s="30">
+        <v>1</v>
+      </c>
+      <c r="O23" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="N23" s="30">
+      <c r="P23" s="30">
         <v>4</v>
       </c>
-      <c r="O23" s="21">
+      <c r="Q23" s="21">
         <v>-0.14000000000000001</v>
       </c>
-      <c r="P23" s="21"/>
-      <c r="Q23" s="30" t="s">
+      <c r="R23" s="21"/>
+      <c r="S23" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="R23" s="30"/>
-      <c r="S23" s="30">
+      <c r="T23" s="30"/>
+      <c r="U23" s="30">
         <v>1.28</v>
-      </c>
-      <c r="T23" s="27">
-        <v>0</v>
-      </c>
-      <c r="U23" s="28">
-        <v>1</v>
       </c>
       <c r="V23" s="31"/>
       <c r="W23" s="60"/>
@@ -3072,34 +3075,34 @@
       <c r="J24" s="30">
         <v>347</v>
       </c>
-      <c r="K24" s="30">
-        <v>0</v>
-      </c>
-      <c r="L24" s="30">
-        <v>1</v>
-      </c>
-      <c r="M24" s="16" t="s">
+      <c r="K24" s="27">
+        <v>0</v>
+      </c>
+      <c r="L24" s="28">
+        <v>1</v>
+      </c>
+      <c r="M24" s="30">
+        <v>0</v>
+      </c>
+      <c r="N24" s="30">
+        <v>1</v>
+      </c>
+      <c r="O24" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="N24" s="30">
+      <c r="P24" s="30">
         <v>3</v>
       </c>
-      <c r="O24" s="27">
+      <c r="Q24" s="27">
         <v>-0.11</v>
       </c>
-      <c r="P24" s="27"/>
-      <c r="Q24" s="30" t="s">
+      <c r="R24" s="27"/>
+      <c r="S24" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="R24" s="30"/>
-      <c r="S24" s="30">
+      <c r="T24" s="30"/>
+      <c r="U24" s="30">
         <v>1.95</v>
-      </c>
-      <c r="T24" s="27">
-        <v>0</v>
-      </c>
-      <c r="U24" s="28">
-        <v>1</v>
       </c>
       <c r="V24" s="31"/>
       <c r="W24" s="60"/>
@@ -3141,34 +3144,34 @@
       <c r="J25" s="30">
         <v>244</v>
       </c>
-      <c r="K25" s="30">
-        <v>0</v>
-      </c>
-      <c r="L25" s="30">
-        <v>1</v>
-      </c>
-      <c r="M25" s="21" t="s">
+      <c r="K25" s="27">
+        <v>0</v>
+      </c>
+      <c r="L25" s="28">
+        <v>1</v>
+      </c>
+      <c r="M25" s="30">
+        <v>0</v>
+      </c>
+      <c r="N25" s="30">
+        <v>1</v>
+      </c>
+      <c r="O25" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="N25" s="30">
+      <c r="P25" s="30">
         <v>9</v>
       </c>
-      <c r="O25" s="27">
+      <c r="Q25" s="27">
         <v>-0.33</v>
       </c>
-      <c r="P25" s="27"/>
-      <c r="Q25" s="30" t="s">
+      <c r="R25" s="27"/>
+      <c r="S25" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="R25" s="30"/>
-      <c r="S25" s="30">
+      <c r="T25" s="30"/>
+      <c r="U25" s="30">
         <v>1.17</v>
-      </c>
-      <c r="T25" s="27">
-        <v>0</v>
-      </c>
-      <c r="U25" s="28">
-        <v>1</v>
       </c>
       <c r="V25" s="31"/>
       <c r="W25" s="60"/>
@@ -3210,34 +3213,34 @@
       <c r="J26" s="30">
         <v>245</v>
       </c>
-      <c r="K26" s="30">
-        <v>0</v>
-      </c>
-      <c r="L26" s="30">
-        <v>1</v>
-      </c>
-      <c r="M26" s="16" t="s">
+      <c r="K26" s="27">
+        <v>0</v>
+      </c>
+      <c r="L26" s="28">
+        <v>1</v>
+      </c>
+      <c r="M26" s="30">
+        <v>0</v>
+      </c>
+      <c r="N26" s="30">
+        <v>1</v>
+      </c>
+      <c r="O26" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="N26" s="30">
+      <c r="P26" s="30">
         <v>4</v>
       </c>
-      <c r="O26" s="27">
+      <c r="Q26" s="27">
         <v>0.08</v>
       </c>
-      <c r="P26" s="27"/>
-      <c r="Q26" s="30" t="s">
+      <c r="R26" s="27"/>
+      <c r="S26" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="R26" s="30"/>
-      <c r="S26" s="30">
+      <c r="T26" s="30"/>
+      <c r="U26" s="30">
         <v>2.3199999999999998</v>
-      </c>
-      <c r="T26" s="27">
-        <v>0</v>
-      </c>
-      <c r="U26" s="28">
-        <v>1</v>
       </c>
       <c r="V26" s="31"/>
       <c r="W26" s="60"/>
@@ -3279,34 +3282,34 @@
       <c r="J27" s="30">
         <v>270</v>
       </c>
-      <c r="K27" s="30">
-        <v>0</v>
-      </c>
-      <c r="L27" s="30">
-        <v>1</v>
-      </c>
-      <c r="M27" s="21" t="s">
+      <c r="K27" s="27">
+        <v>0</v>
+      </c>
+      <c r="L27" s="28">
+        <v>1</v>
+      </c>
+      <c r="M27" s="30">
+        <v>0</v>
+      </c>
+      <c r="N27" s="30">
+        <v>1</v>
+      </c>
+      <c r="O27" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="N27" s="30">
+      <c r="P27" s="30">
         <v>3</v>
       </c>
-      <c r="O27" s="27">
+      <c r="Q27" s="27">
         <v>-0.32</v>
       </c>
-      <c r="P27" s="27"/>
-      <c r="Q27" s="30" t="s">
+      <c r="R27" s="27"/>
+      <c r="S27" s="30" t="s">
         <v>79</v>
       </c>
-      <c r="R27" s="30"/>
-      <c r="S27" s="30">
+      <c r="T27" s="30"/>
+      <c r="U27" s="30">
         <v>1.47</v>
-      </c>
-      <c r="T27" s="27">
-        <v>0</v>
-      </c>
-      <c r="U27" s="28">
-        <v>1</v>
       </c>
       <c r="V27" s="31"/>
       <c r="W27" s="60"/>
@@ -3348,34 +3351,34 @@
       <c r="J28" s="30">
         <v>266</v>
       </c>
-      <c r="K28" s="30">
-        <v>0</v>
-      </c>
-      <c r="L28" s="30">
-        <v>1</v>
-      </c>
-      <c r="M28" s="16" t="s">
+      <c r="K28" s="27">
+        <v>0</v>
+      </c>
+      <c r="L28" s="28">
+        <v>1</v>
+      </c>
+      <c r="M28" s="30">
+        <v>0</v>
+      </c>
+      <c r="N28" s="30">
+        <v>1</v>
+      </c>
+      <c r="O28" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="N28" s="30">
+      <c r="P28" s="30">
         <v>3</v>
       </c>
-      <c r="O28" s="27">
+      <c r="Q28" s="27">
         <v>0.46</v>
       </c>
-      <c r="P28" s="27"/>
-      <c r="Q28" s="30" t="s">
+      <c r="R28" s="27"/>
+      <c r="S28" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="R28" s="30"/>
-      <c r="S28" s="30">
+      <c r="T28" s="30"/>
+      <c r="U28" s="30">
         <v>3.59</v>
-      </c>
-      <c r="T28" s="27">
-        <v>0</v>
-      </c>
-      <c r="U28" s="28">
-        <v>1</v>
       </c>
       <c r="V28" s="31"/>
       <c r="W28" s="60"/>
@@ -3417,34 +3420,34 @@
       <c r="J29" s="30">
         <v>266</v>
       </c>
-      <c r="K29" s="30">
-        <v>0</v>
-      </c>
-      <c r="L29" s="30">
-        <v>1</v>
-      </c>
-      <c r="M29" s="21" t="s">
+      <c r="K29" s="27">
+        <v>0</v>
+      </c>
+      <c r="L29" s="28">
+        <v>1</v>
+      </c>
+      <c r="M29" s="30">
+        <v>0</v>
+      </c>
+      <c r="N29" s="30">
+        <v>1</v>
+      </c>
+      <c r="O29" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="N29" s="30">
+      <c r="P29" s="30">
         <v>3</v>
       </c>
-      <c r="O29" s="27">
+      <c r="Q29" s="27">
         <v>-0.62</v>
       </c>
-      <c r="P29" s="27"/>
-      <c r="Q29" s="30" t="s">
+      <c r="R29" s="27"/>
+      <c r="S29" s="30" t="s">
         <v>81</v>
       </c>
-      <c r="R29" s="30"/>
-      <c r="S29" s="30">
+      <c r="T29" s="30"/>
+      <c r="U29" s="30">
         <v>2.99</v>
-      </c>
-      <c r="T29" s="27">
-        <v>0</v>
-      </c>
-      <c r="U29" s="28">
-        <v>1</v>
       </c>
       <c r="V29" s="31"/>
       <c r="W29" s="60"/>
@@ -3486,34 +3489,34 @@
       <c r="J30" s="30">
         <v>308</v>
       </c>
-      <c r="K30" s="30">
-        <v>0</v>
-      </c>
-      <c r="L30" s="30">
-        <v>1</v>
-      </c>
-      <c r="M30" s="16" t="s">
+      <c r="K30" s="27">
+        <v>0</v>
+      </c>
+      <c r="L30" s="28">
+        <v>1</v>
+      </c>
+      <c r="M30" s="30">
+        <v>0</v>
+      </c>
+      <c r="N30" s="30">
+        <v>1</v>
+      </c>
+      <c r="O30" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="N30" s="30">
+      <c r="P30" s="30">
         <v>3</v>
       </c>
-      <c r="O30" s="27">
+      <c r="Q30" s="27">
         <v>-1.0900000000000001</v>
       </c>
-      <c r="P30" s="27"/>
-      <c r="Q30" s="30" t="s">
+      <c r="R30" s="27"/>
+      <c r="S30" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="R30" s="30"/>
-      <c r="S30" s="30">
+      <c r="T30" s="30"/>
+      <c r="U30" s="30">
         <v>1.82</v>
-      </c>
-      <c r="T30" s="27">
-        <v>0</v>
-      </c>
-      <c r="U30" s="28">
-        <v>1</v>
       </c>
       <c r="V30" s="31"/>
       <c r="W30" s="60"/>
@@ -3555,34 +3558,34 @@
       <c r="J31" s="30">
         <v>308</v>
       </c>
-      <c r="K31" s="30">
-        <v>0</v>
-      </c>
-      <c r="L31" s="30">
-        <v>1</v>
-      </c>
-      <c r="M31" s="21" t="s">
+      <c r="K31" s="27">
+        <v>0</v>
+      </c>
+      <c r="L31" s="28">
+        <v>1</v>
+      </c>
+      <c r="M31" s="30">
+        <v>0</v>
+      </c>
+      <c r="N31" s="30">
+        <v>1</v>
+      </c>
+      <c r="O31" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="N31" s="30">
+      <c r="P31" s="30">
         <v>3</v>
       </c>
-      <c r="O31" s="27">
+      <c r="Q31" s="27">
         <v>0.13</v>
       </c>
-      <c r="P31" s="27"/>
-      <c r="Q31" s="30" t="s">
+      <c r="R31" s="27"/>
+      <c r="S31" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="R31" s="30"/>
-      <c r="S31" s="30">
+      <c r="T31" s="30"/>
+      <c r="U31" s="30">
         <v>1.32</v>
-      </c>
-      <c r="T31" s="27">
-        <v>0</v>
-      </c>
-      <c r="U31" s="28">
-        <v>1</v>
       </c>
       <c r="V31" s="31"/>
       <c r="W31" s="60"/>
@@ -3624,34 +3627,34 @@
       <c r="J32" s="30">
         <v>317</v>
       </c>
-      <c r="K32" s="30">
-        <v>0</v>
-      </c>
-      <c r="L32" s="30">
-        <v>1</v>
-      </c>
-      <c r="M32" s="16" t="s">
+      <c r="K32" s="27">
+        <v>0</v>
+      </c>
+      <c r="L32" s="28">
+        <v>1</v>
+      </c>
+      <c r="M32" s="30">
+        <v>0</v>
+      </c>
+      <c r="N32" s="30">
+        <v>1</v>
+      </c>
+      <c r="O32" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="N32" s="30">
+      <c r="P32" s="30">
         <v>4</v>
       </c>
-      <c r="O32" s="27">
+      <c r="Q32" s="27">
         <v>0.05</v>
       </c>
-      <c r="P32" s="27"/>
-      <c r="Q32" s="30" t="s">
+      <c r="R32" s="27"/>
+      <c r="S32" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="R32" s="30"/>
-      <c r="S32" s="30">
+      <c r="T32" s="30"/>
+      <c r="U32" s="30">
         <v>1.91</v>
-      </c>
-      <c r="T32" s="27">
-        <v>0</v>
-      </c>
-      <c r="U32" s="28">
-        <v>1</v>
       </c>
       <c r="V32" s="31"/>
       <c r="W32" s="60"/>
@@ -3693,34 +3696,34 @@
       <c r="J33" s="30">
         <v>313</v>
       </c>
-      <c r="K33" s="30">
-        <v>0</v>
-      </c>
-      <c r="L33" s="30">
-        <v>1</v>
-      </c>
-      <c r="M33" s="21" t="s">
+      <c r="K33" s="27">
+        <v>0</v>
+      </c>
+      <c r="L33" s="28">
+        <v>1</v>
+      </c>
+      <c r="M33" s="30">
+        <v>0</v>
+      </c>
+      <c r="N33" s="30">
+        <v>1</v>
+      </c>
+      <c r="O33" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="N33" s="30">
+      <c r="P33" s="30">
         <v>4</v>
       </c>
-      <c r="O33" s="27">
+      <c r="Q33" s="27">
         <v>-0.13</v>
       </c>
-      <c r="P33" s="27"/>
-      <c r="Q33" s="30" t="s">
+      <c r="R33" s="27"/>
+      <c r="S33" s="30" t="s">
         <v>85</v>
       </c>
-      <c r="R33" s="30"/>
-      <c r="S33" s="30">
+      <c r="T33" s="30"/>
+      <c r="U33" s="30">
         <v>1.27</v>
-      </c>
-      <c r="T33" s="27">
-        <v>0</v>
-      </c>
-      <c r="U33" s="28">
-        <v>1</v>
       </c>
       <c r="V33" s="31"/>
       <c r="W33" s="60"/>
@@ -3762,34 +3765,34 @@
       <c r="J34" s="30">
         <v>278</v>
       </c>
-      <c r="K34" s="30">
-        <v>0</v>
-      </c>
-      <c r="L34" s="30">
-        <v>1</v>
-      </c>
-      <c r="M34" s="16" t="s">
+      <c r="K34" s="27">
+        <v>0</v>
+      </c>
+      <c r="L34" s="28">
+        <v>1</v>
+      </c>
+      <c r="M34" s="30">
+        <v>0</v>
+      </c>
+      <c r="N34" s="30">
+        <v>1</v>
+      </c>
+      <c r="O34" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="N34" s="16">
+      <c r="P34" s="16">
         <v>3</v>
       </c>
-      <c r="O34" s="27">
+      <c r="Q34" s="27">
         <v>-0.15</v>
       </c>
-      <c r="P34" s="27"/>
-      <c r="Q34" s="30" t="s">
+      <c r="R34" s="27"/>
+      <c r="S34" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="R34" s="30"/>
-      <c r="S34" s="30">
+      <c r="T34" s="30"/>
+      <c r="U34" s="30">
         <v>1.92</v>
-      </c>
-      <c r="T34" s="27">
-        <v>0</v>
-      </c>
-      <c r="U34" s="28">
-        <v>1</v>
       </c>
       <c r="V34" s="31"/>
       <c r="W34" s="60"/>
@@ -3831,34 +3834,34 @@
       <c r="J35" s="30">
         <v>191</v>
       </c>
-      <c r="K35" s="30">
-        <v>0</v>
-      </c>
-      <c r="L35" s="30">
-        <v>1</v>
-      </c>
-      <c r="M35" s="21" t="s">
+      <c r="K35" s="27">
+        <v>0</v>
+      </c>
+      <c r="L35" s="28">
+        <v>1</v>
+      </c>
+      <c r="M35" s="30">
+        <v>0</v>
+      </c>
+      <c r="N35" s="30">
+        <v>1</v>
+      </c>
+      <c r="O35" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="N35" s="21">
+      <c r="P35" s="21">
         <v>9</v>
       </c>
-      <c r="O35" s="27">
+      <c r="Q35" s="27">
         <v>-0.35</v>
       </c>
-      <c r="P35" s="27"/>
-      <c r="Q35" s="30" t="s">
+      <c r="R35" s="27"/>
+      <c r="S35" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="R35" s="30"/>
-      <c r="S35" s="30">
+      <c r="T35" s="30"/>
+      <c r="U35" s="30">
         <v>1.1200000000000001</v>
-      </c>
-      <c r="T35" s="27">
-        <v>0</v>
-      </c>
-      <c r="U35" s="28">
-        <v>1</v>
       </c>
       <c r="V35" s="31"/>
       <c r="W35" s="60"/>
@@ -3900,34 +3903,34 @@
       <c r="J36" s="30">
         <v>245</v>
       </c>
-      <c r="K36" s="30">
-        <v>0</v>
-      </c>
-      <c r="L36" s="30">
-        <v>1</v>
-      </c>
-      <c r="M36" s="16" t="s">
+      <c r="K36" s="27">
+        <v>0</v>
+      </c>
+      <c r="L36" s="28">
+        <v>1</v>
+      </c>
+      <c r="M36" s="30">
+        <v>0</v>
+      </c>
+      <c r="N36" s="30">
+        <v>1</v>
+      </c>
+      <c r="O36" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="N36" s="30">
+      <c r="P36" s="30">
         <v>3</v>
       </c>
-      <c r="O36" s="27">
+      <c r="Q36" s="27">
         <v>-0.56000000000000005</v>
       </c>
-      <c r="P36" s="27"/>
-      <c r="Q36" s="30" t="s">
+      <c r="R36" s="27"/>
+      <c r="S36" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="R36" s="30"/>
-      <c r="S36" s="30">
+      <c r="T36" s="30"/>
+      <c r="U36" s="30">
         <v>2.97</v>
-      </c>
-      <c r="T36" s="27">
-        <v>0</v>
-      </c>
-      <c r="U36" s="28">
-        <v>1</v>
       </c>
       <c r="V36" s="31"/>
       <c r="W36" s="60"/>
@@ -3969,34 +3972,34 @@
       <c r="J37" s="30">
         <v>255</v>
       </c>
-      <c r="K37" s="30">
-        <v>0</v>
-      </c>
-      <c r="L37" s="30">
-        <v>1</v>
-      </c>
-      <c r="M37" s="21" t="s">
+      <c r="K37" s="27">
+        <v>0</v>
+      </c>
+      <c r="L37" s="28">
+        <v>1</v>
+      </c>
+      <c r="M37" s="30">
+        <v>0</v>
+      </c>
+      <c r="N37" s="30">
+        <v>1</v>
+      </c>
+      <c r="O37" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="N37" s="30">
+      <c r="P37" s="30">
         <v>3</v>
       </c>
-      <c r="O37" s="27">
+      <c r="Q37" s="27">
         <v>-0.1</v>
       </c>
-      <c r="P37" s="27"/>
-      <c r="Q37" s="30" t="s">
+      <c r="R37" s="27"/>
+      <c r="S37" s="30" t="s">
         <v>89</v>
       </c>
-      <c r="R37" s="30"/>
-      <c r="S37" s="30">
+      <c r="T37" s="30"/>
+      <c r="U37" s="30">
         <v>1.1100000000000001</v>
-      </c>
-      <c r="T37" s="27">
-        <v>0</v>
-      </c>
-      <c r="U37" s="28">
-        <v>1</v>
       </c>
       <c r="V37" s="31"/>
       <c r="W37" s="60"/>
@@ -4041,31 +4044,31 @@
       <c r="K38" s="8">
         <v>0</v>
       </c>
-      <c r="L38" s="8">
-        <v>1</v>
-      </c>
-      <c r="M38" s="8" t="s">
+      <c r="L38" s="9">
+        <v>1</v>
+      </c>
+      <c r="M38" s="8">
+        <v>0</v>
+      </c>
+      <c r="N38" s="8">
+        <v>1</v>
+      </c>
+      <c r="O38" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="N38" s="8">
+      <c r="P38" s="8">
         <v>9</v>
       </c>
-      <c r="O38" s="8">
+      <c r="Q38" s="8">
         <v>1.1399999999999999</v>
       </c>
-      <c r="P38" s="8" t="s">
+      <c r="R38" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="Q38" s="8"/>
-      <c r="R38" s="8"/>
-      <c r="S38" s="8">
+      <c r="S38" s="8"/>
+      <c r="T38" s="8"/>
+      <c r="U38" s="8">
         <v>2.65</v>
-      </c>
-      <c r="T38" s="8">
-        <v>0</v>
-      </c>
-      <c r="U38" s="9">
-        <v>1</v>
       </c>
       <c r="V38" s="10"/>
       <c r="W38" s="59"/>
@@ -4110,28 +4113,28 @@
       <c r="K39" s="13">
         <v>0</v>
       </c>
-      <c r="L39" s="13"/>
-      <c r="M39" s="13" t="s">
+      <c r="L39" s="14"/>
+      <c r="M39" s="13">
+        <v>0</v>
+      </c>
+      <c r="N39" s="13"/>
+      <c r="O39" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="N39" s="13">
+      <c r="P39" s="13">
         <v>9</v>
       </c>
-      <c r="O39" s="13">
+      <c r="Q39" s="13">
         <v>0.98</v>
       </c>
-      <c r="P39" s="13" t="s">
+      <c r="R39" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="Q39" s="13"/>
-      <c r="R39" s="13"/>
-      <c r="S39" s="13">
+      <c r="S39" s="13"/>
+      <c r="T39" s="13"/>
+      <c r="U39" s="13">
         <v>2.3199999999999998</v>
       </c>
-      <c r="T39" s="13">
-        <v>0</v>
-      </c>
-      <c r="U39" s="14"/>
       <c r="V39" s="10"/>
       <c r="W39" s="59"/>
       <c r="X39" s="59"/>
@@ -4173,28 +4176,28 @@
       <c r="K40" s="8">
         <v>0</v>
       </c>
-      <c r="L40" s="8"/>
-      <c r="M40" s="8" t="s">
+      <c r="L40" s="9"/>
+      <c r="M40" s="8">
+        <v>0</v>
+      </c>
+      <c r="N40" s="8"/>
+      <c r="O40" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="N40" s="8">
+      <c r="P40" s="8">
         <v>9</v>
       </c>
-      <c r="O40" s="8">
+      <c r="Q40" s="8">
         <v>1.41</v>
       </c>
-      <c r="P40" s="8" t="s">
+      <c r="R40" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="Q40" s="8"/>
-      <c r="R40" s="8"/>
-      <c r="S40" s="8">
+      <c r="S40" s="8"/>
+      <c r="T40" s="8"/>
+      <c r="U40" s="8">
         <v>2.83</v>
       </c>
-      <c r="T40" s="8">
-        <v>0</v>
-      </c>
-      <c r="U40" s="9"/>
       <c r="V40" s="10"/>
       <c r="W40" s="59"/>
       <c r="X40" s="59"/>
@@ -4236,31 +4239,31 @@
       <c r="K41" s="13">
         <v>0</v>
       </c>
-      <c r="L41" s="13">
-        <v>1</v>
-      </c>
-      <c r="M41" s="13" t="s">
+      <c r="L41" s="14">
+        <v>1</v>
+      </c>
+      <c r="M41" s="13">
+        <v>0</v>
+      </c>
+      <c r="N41" s="13">
+        <v>1</v>
+      </c>
+      <c r="O41" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="N41" s="13">
+      <c r="P41" s="13">
         <v>4</v>
       </c>
-      <c r="O41" s="13">
+      <c r="Q41" s="13">
         <v>1.37</v>
       </c>
-      <c r="P41" s="13" t="s">
+      <c r="R41" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="Q41" s="13"/>
-      <c r="R41" s="13"/>
-      <c r="S41" s="13">
+      <c r="S41" s="13"/>
+      <c r="T41" s="13"/>
+      <c r="U41" s="13">
         <v>1.96</v>
-      </c>
-      <c r="T41" s="13">
-        <v>0</v>
-      </c>
-      <c r="U41" s="14">
-        <v>1</v>
       </c>
       <c r="V41" s="10"/>
       <c r="W41" s="59"/>
@@ -4303,31 +4306,31 @@
       <c r="K42" s="8">
         <v>0</v>
       </c>
-      <c r="L42" s="8">
-        <v>1</v>
-      </c>
-      <c r="M42" s="8" t="s">
+      <c r="L42" s="9">
+        <v>1</v>
+      </c>
+      <c r="M42" s="8">
+        <v>0</v>
+      </c>
+      <c r="N42" s="8">
+        <v>1</v>
+      </c>
+      <c r="O42" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="N42" s="8">
+      <c r="P42" s="8">
         <v>3</v>
       </c>
-      <c r="O42" s="8">
+      <c r="Q42" s="8">
         <v>0.74</v>
       </c>
-      <c r="P42" s="8" t="s">
+      <c r="R42" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="Q42" s="8"/>
-      <c r="R42" s="8"/>
-      <c r="S42" s="8">
+      <c r="S42" s="8"/>
+      <c r="T42" s="8"/>
+      <c r="U42" s="8">
         <v>2.02</v>
-      </c>
-      <c r="T42" s="8">
-        <v>0</v>
-      </c>
-      <c r="U42" s="9">
-        <v>1</v>
       </c>
       <c r="V42" s="10"/>
       <c r="W42" s="59"/>
@@ -4370,31 +4373,31 @@
       <c r="K43" s="13">
         <v>0</v>
       </c>
-      <c r="L43" s="13">
-        <v>1</v>
-      </c>
-      <c r="M43" s="13" t="s">
+      <c r="L43" s="14">
+        <v>1</v>
+      </c>
+      <c r="M43" s="13">
+        <v>0</v>
+      </c>
+      <c r="N43" s="13">
+        <v>1</v>
+      </c>
+      <c r="O43" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="N43" s="13">
+      <c r="P43" s="13">
         <v>9</v>
       </c>
-      <c r="O43" s="13">
+      <c r="Q43" s="13">
         <v>1.3</v>
       </c>
-      <c r="P43" s="13" t="s">
+      <c r="R43" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="Q43" s="13"/>
-      <c r="R43" s="13"/>
-      <c r="S43" s="13">
+      <c r="S43" s="13"/>
+      <c r="T43" s="13"/>
+      <c r="U43" s="13">
         <v>2.4700000000000002</v>
-      </c>
-      <c r="T43" s="13">
-        <v>0</v>
-      </c>
-      <c r="U43" s="14">
-        <v>1</v>
       </c>
       <c r="V43" s="10"/>
       <c r="W43" s="59"/>
@@ -4437,28 +4440,28 @@
       <c r="K44" s="8">
         <v>0</v>
       </c>
-      <c r="L44" s="8"/>
-      <c r="M44" s="8" t="s">
+      <c r="L44" s="9"/>
+      <c r="M44" s="8">
+        <v>0</v>
+      </c>
+      <c r="N44" s="8"/>
+      <c r="O44" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="N44" s="8">
+      <c r="P44" s="8">
         <v>9</v>
       </c>
-      <c r="O44" s="8">
+      <c r="Q44" s="8">
         <v>1.1200000000000001</v>
       </c>
-      <c r="P44" s="8" t="s">
+      <c r="R44" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="Q44" s="8"/>
-      <c r="R44" s="8"/>
-      <c r="S44" s="8">
+      <c r="S44" s="8"/>
+      <c r="T44" s="8"/>
+      <c r="U44" s="8">
         <v>1.96</v>
       </c>
-      <c r="T44" s="8">
-        <v>0</v>
-      </c>
-      <c r="U44" s="9"/>
       <c r="V44" s="10"/>
       <c r="W44" s="59"/>
       <c r="X44" s="59"/>
@@ -4500,28 +4503,28 @@
       <c r="K45" s="13">
         <v>0</v>
       </c>
-      <c r="L45" s="13"/>
-      <c r="M45" s="13" t="s">
+      <c r="L45" s="14"/>
+      <c r="M45" s="13">
+        <v>0</v>
+      </c>
+      <c r="N45" s="13"/>
+      <c r="O45" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="N45" s="13">
+      <c r="P45" s="13">
         <v>9</v>
       </c>
-      <c r="O45" s="13">
+      <c r="Q45" s="13">
         <v>1.75</v>
       </c>
-      <c r="P45" s="13" t="s">
+      <c r="R45" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="Q45" s="13"/>
-      <c r="R45" s="13"/>
-      <c r="S45" s="13">
+      <c r="S45" s="13"/>
+      <c r="T45" s="13"/>
+      <c r="U45" s="13">
         <v>2.92</v>
       </c>
-      <c r="T45" s="13">
-        <v>0</v>
-      </c>
-      <c r="U45" s="14"/>
       <c r="V45" s="10"/>
       <c r="W45" s="59"/>
       <c r="X45" s="59"/>
@@ -4563,31 +4566,31 @@
       <c r="K46" s="8">
         <v>0</v>
       </c>
-      <c r="L46" s="8">
-        <v>1</v>
-      </c>
-      <c r="M46" s="8" t="s">
+      <c r="L46" s="9">
+        <v>1</v>
+      </c>
+      <c r="M46" s="8">
+        <v>0</v>
+      </c>
+      <c r="N46" s="8">
+        <v>1</v>
+      </c>
+      <c r="O46" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="N46" s="8">
+      <c r="P46" s="8">
         <v>3</v>
       </c>
-      <c r="O46" s="8">
+      <c r="Q46" s="8">
         <v>3.91</v>
       </c>
-      <c r="P46" s="8" t="s">
+      <c r="R46" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="Q46" s="8"/>
-      <c r="R46" s="8"/>
-      <c r="S46" s="8">
+      <c r="S46" s="8"/>
+      <c r="T46" s="8"/>
+      <c r="U46" s="8">
         <v>2.39</v>
-      </c>
-      <c r="T46" s="8">
-        <v>0</v>
-      </c>
-      <c r="U46" s="9">
-        <v>1</v>
       </c>
       <c r="V46" s="10"/>
       <c r="W46" s="59"/>
@@ -4630,31 +4633,31 @@
       <c r="K47" s="13">
         <v>0</v>
       </c>
-      <c r="L47" s="13">
-        <v>1</v>
-      </c>
-      <c r="M47" s="13" t="s">
+      <c r="L47" s="14">
+        <v>1</v>
+      </c>
+      <c r="M47" s="13">
+        <v>0</v>
+      </c>
+      <c r="N47" s="13">
+        <v>1</v>
+      </c>
+      <c r="O47" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="N47" s="13">
+      <c r="P47" s="13">
         <v>2</v>
       </c>
-      <c r="O47" s="13">
+      <c r="Q47" s="13">
         <v>1.24</v>
       </c>
-      <c r="P47" s="13">
+      <c r="R47" s="13">
         <v>0.37</v>
       </c>
-      <c r="Q47" s="13"/>
-      <c r="R47" s="13"/>
-      <c r="S47" s="13">
+      <c r="S47" s="13"/>
+      <c r="T47" s="13"/>
+      <c r="U47" s="13">
         <v>3.06</v>
-      </c>
-      <c r="T47" s="13">
-        <v>0</v>
-      </c>
-      <c r="U47" s="14">
-        <v>1</v>
       </c>
       <c r="V47" s="10"/>
       <c r="W47" s="59"/>
@@ -4697,28 +4700,28 @@
       <c r="K48" s="8">
         <v>0</v>
       </c>
-      <c r="L48" s="8"/>
-      <c r="M48" s="8" t="s">
+      <c r="L48" s="9"/>
+      <c r="M48" s="8">
+        <v>0</v>
+      </c>
+      <c r="N48" s="8"/>
+      <c r="O48" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="N48" s="8">
+      <c r="P48" s="8">
         <v>2</v>
       </c>
-      <c r="O48" s="8">
+      <c r="Q48" s="8">
         <v>1.07</v>
       </c>
-      <c r="P48" s="8">
+      <c r="R48" s="8">
         <v>0.41299999999999998</v>
       </c>
-      <c r="Q48" s="8"/>
-      <c r="R48" s="8"/>
-      <c r="S48" s="8">
+      <c r="S48" s="8"/>
+      <c r="T48" s="8"/>
+      <c r="U48" s="8">
         <v>3</v>
       </c>
-      <c r="T48" s="8">
-        <v>0</v>
-      </c>
-      <c r="U48" s="9"/>
       <c r="V48" s="10"/>
       <c r="W48" s="59"/>
       <c r="X48" s="59"/>
@@ -4760,28 +4763,28 @@
       <c r="K49" s="13">
         <v>0</v>
       </c>
-      <c r="L49" s="13"/>
-      <c r="M49" s="13" t="s">
+      <c r="L49" s="14"/>
+      <c r="M49" s="13">
+        <v>0</v>
+      </c>
+      <c r="N49" s="13"/>
+      <c r="O49" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="N49" s="13">
+      <c r="P49" s="13">
         <v>2</v>
       </c>
-      <c r="O49" s="13">
+      <c r="Q49" s="13">
         <v>1.54</v>
       </c>
-      <c r="P49" s="13">
+      <c r="R49" s="13">
         <v>0.311</v>
       </c>
-      <c r="Q49" s="13"/>
-      <c r="R49" s="13"/>
-      <c r="S49" s="13">
+      <c r="S49" s="13"/>
+      <c r="T49" s="13"/>
+      <c r="U49" s="13">
         <v>3.26</v>
       </c>
-      <c r="T49" s="13">
-        <v>0</v>
-      </c>
-      <c r="U49" s="14"/>
       <c r="V49" s="10"/>
       <c r="W49" s="59"/>
       <c r="X49" s="59"/>
@@ -4823,31 +4826,31 @@
       <c r="K50" s="8">
         <v>0</v>
       </c>
-      <c r="L50" s="8">
-        <v>1</v>
-      </c>
-      <c r="M50" s="8" t="s">
+      <c r="L50" s="9">
+        <v>1</v>
+      </c>
+      <c r="M50" s="8">
+        <v>0</v>
+      </c>
+      <c r="N50" s="8">
+        <v>1</v>
+      </c>
+      <c r="O50" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="N50" s="8">
+      <c r="P50" s="8">
         <v>3</v>
       </c>
-      <c r="O50" s="8">
+      <c r="Q50" s="8">
         <v>1.43</v>
       </c>
-      <c r="P50" s="8" t="s">
+      <c r="R50" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="Q50" s="8"/>
-      <c r="R50" s="8"/>
-      <c r="S50" s="8">
+      <c r="S50" s="8"/>
+      <c r="T50" s="8"/>
+      <c r="U50" s="8">
         <v>2.62</v>
-      </c>
-      <c r="T50" s="8">
-        <v>0</v>
-      </c>
-      <c r="U50" s="9">
-        <v>1</v>
       </c>
       <c r="V50" s="10"/>
       <c r="W50" s="59"/>
@@ -4890,31 +4893,31 @@
       <c r="K51" s="13">
         <v>0</v>
       </c>
-      <c r="L51" s="13">
-        <v>1</v>
-      </c>
-      <c r="M51" s="13" t="s">
+      <c r="L51" s="14">
+        <v>1</v>
+      </c>
+      <c r="M51" s="13">
+        <v>0</v>
+      </c>
+      <c r="N51" s="13">
+        <v>1</v>
+      </c>
+      <c r="O51" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="N51" s="13">
+      <c r="P51" s="13">
         <v>5</v>
       </c>
-      <c r="O51" s="13">
+      <c r="Q51" s="13">
         <v>1.38</v>
       </c>
-      <c r="P51" s="13" t="s">
+      <c r="R51" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="Q51" s="13"/>
-      <c r="R51" s="13"/>
-      <c r="S51" s="13">
+      <c r="S51" s="13"/>
+      <c r="T51" s="13"/>
+      <c r="U51" s="13">
         <v>1.87</v>
-      </c>
-      <c r="T51" s="13">
-        <v>0</v>
-      </c>
-      <c r="U51" s="14">
-        <v>1</v>
       </c>
       <c r="V51" s="10"/>
       <c r="W51" s="59"/>
@@ -4957,31 +4960,31 @@
       <c r="K52" s="8">
         <v>0</v>
       </c>
-      <c r="L52" s="8">
-        <v>1</v>
-      </c>
-      <c r="M52" s="8" t="s">
+      <c r="L52" s="9">
+        <v>1</v>
+      </c>
+      <c r="M52" s="8">
+        <v>0</v>
+      </c>
+      <c r="N52" s="8">
+        <v>1</v>
+      </c>
+      <c r="O52" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="N52" s="8">
+      <c r="P52" s="8">
         <v>4</v>
       </c>
-      <c r="O52" s="8">
+      <c r="Q52" s="8">
         <v>0.91</v>
       </c>
-      <c r="P52" s="8" t="s">
+      <c r="R52" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="Q52" s="8"/>
-      <c r="R52" s="8"/>
-      <c r="S52" s="8">
+      <c r="S52" s="8"/>
+      <c r="T52" s="8"/>
+      <c r="U52" s="8">
         <v>2.1</v>
-      </c>
-      <c r="T52" s="8">
-        <v>0</v>
-      </c>
-      <c r="U52" s="9">
-        <v>1</v>
       </c>
       <c r="V52" s="10"/>
       <c r="W52" s="59"/>
@@ -5022,29 +5025,29 @@
         <v>2254</v>
       </c>
       <c r="K53" s="21">
-        <v>0</v>
-      </c>
-      <c r="L53" s="21">
-        <v>1</v>
-      </c>
-      <c r="M53" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="L53" s="22">
+        <v>0</v>
+      </c>
+      <c r="M53" s="21">
+        <v>0</v>
+      </c>
+      <c r="N53" s="21">
+        <v>1</v>
+      </c>
+      <c r="O53" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="N53" s="21"/>
-      <c r="O53" s="21"/>
-      <c r="P53" s="21" t="s">
+      <c r="P53" s="21"/>
+      <c r="Q53" s="21"/>
+      <c r="R53" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="Q53" s="21"/>
-      <c r="R53" s="21"/>
-      <c r="S53" s="21">
+      <c r="S53" s="21"/>
+      <c r="T53" s="21"/>
+      <c r="U53" s="21">
         <v>1.978</v>
-      </c>
-      <c r="T53" s="21">
-        <v>1</v>
-      </c>
-      <c r="U53" s="22">
-        <v>0</v>
       </c>
       <c r="V53" s="18"/>
       <c r="W53" s="60"/>
@@ -5086,30 +5089,30 @@
       <c r="J54" s="33">
         <v>2174</v>
       </c>
-      <c r="K54" s="16">
-        <v>0</v>
-      </c>
-      <c r="L54" s="16">
-        <v>1</v>
-      </c>
-      <c r="M54" s="16" t="s">
+      <c r="K54" s="24">
+        <v>0</v>
+      </c>
+      <c r="L54" s="25">
+        <v>1</v>
+      </c>
+      <c r="M54" s="16">
+        <v>0</v>
+      </c>
+      <c r="N54" s="16">
+        <v>1</v>
+      </c>
+      <c r="O54" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="N54" s="24"/>
-      <c r="O54" s="24"/>
-      <c r="P54" s="24" t="s">
+      <c r="P54" s="24"/>
+      <c r="Q54" s="24"/>
+      <c r="R54" s="24" t="s">
         <v>115</v>
       </c>
-      <c r="Q54" s="24"/>
-      <c r="R54" s="33"/>
-      <c r="S54" s="33">
+      <c r="S54" s="24"/>
+      <c r="T54" s="33"/>
+      <c r="U54" s="33">
         <v>1.8149999999999999</v>
-      </c>
-      <c r="T54" s="24">
-        <v>0</v>
-      </c>
-      <c r="U54" s="25">
-        <v>1</v>
       </c>
       <c r="V54" s="31"/>
       <c r="W54" s="60"/>
@@ -5151,30 +5154,30 @@
       <c r="J55" s="33">
         <v>1230</v>
       </c>
-      <c r="K55" s="21">
-        <v>0</v>
-      </c>
-      <c r="L55" s="21">
-        <v>1</v>
-      </c>
-      <c r="M55" s="21" t="s">
+      <c r="K55" s="24">
+        <v>0</v>
+      </c>
+      <c r="L55" s="25">
+        <v>1</v>
+      </c>
+      <c r="M55" s="21">
+        <v>0</v>
+      </c>
+      <c r="N55" s="21">
+        <v>1</v>
+      </c>
+      <c r="O55" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="N55" s="24"/>
-      <c r="O55" s="24"/>
-      <c r="P55" s="24" t="s">
+      <c r="P55" s="24"/>
+      <c r="Q55" s="24"/>
+      <c r="R55" s="24" t="s">
         <v>117</v>
       </c>
-      <c r="Q55" s="24"/>
-      <c r="R55" s="33"/>
-      <c r="S55" s="33">
+      <c r="S55" s="24"/>
+      <c r="T55" s="33"/>
+      <c r="U55" s="33">
         <v>1.5109999999999999</v>
-      </c>
-      <c r="T55" s="24">
-        <v>0</v>
-      </c>
-      <c r="U55" s="25">
-        <v>1</v>
       </c>
       <c r="V55" s="31"/>
       <c r="W55" s="60"/>
@@ -5216,30 +5219,30 @@
       <c r="J56" s="33">
         <v>1562</v>
       </c>
-      <c r="K56" s="16">
-        <v>0</v>
-      </c>
-      <c r="L56" s="16">
-        <v>1</v>
-      </c>
-      <c r="M56" s="16" t="s">
+      <c r="K56" s="24">
+        <v>0</v>
+      </c>
+      <c r="L56" s="25">
+        <v>1</v>
+      </c>
+      <c r="M56" s="16">
+        <v>0</v>
+      </c>
+      <c r="N56" s="16">
+        <v>1</v>
+      </c>
+      <c r="O56" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="N56" s="24"/>
-      <c r="O56" s="24"/>
-      <c r="P56" s="24">
+      <c r="P56" s="24"/>
+      <c r="Q56" s="24"/>
+      <c r="R56" s="24">
         <v>0.42899999999999999</v>
       </c>
-      <c r="Q56" s="24"/>
-      <c r="R56" s="33"/>
-      <c r="S56" s="33">
+      <c r="S56" s="24"/>
+      <c r="T56" s="33"/>
+      <c r="U56" s="33">
         <v>1.9810000000000001</v>
-      </c>
-      <c r="T56" s="24">
-        <v>0</v>
-      </c>
-      <c r="U56" s="25">
-        <v>1</v>
       </c>
       <c r="V56" s="31"/>
       <c r="W56" s="60"/>
@@ -5281,30 +5284,30 @@
       <c r="J57" s="33">
         <v>834</v>
       </c>
-      <c r="K57" s="21">
-        <v>0</v>
-      </c>
-      <c r="L57" s="21">
-        <v>1</v>
-      </c>
-      <c r="M57" s="21" t="s">
+      <c r="K57" s="24">
+        <v>1</v>
+      </c>
+      <c r="L57" s="25">
+        <v>1</v>
+      </c>
+      <c r="M57" s="21">
+        <v>0</v>
+      </c>
+      <c r="N57" s="21">
+        <v>1</v>
+      </c>
+      <c r="O57" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="N57" s="24"/>
-      <c r="O57" s="24"/>
-      <c r="P57" s="24">
+      <c r="P57" s="24"/>
+      <c r="Q57" s="24"/>
+      <c r="R57" s="24">
         <v>0.70299999999999996</v>
       </c>
-      <c r="Q57" s="24"/>
-      <c r="R57" s="33"/>
-      <c r="S57" s="33">
+      <c r="S57" s="24"/>
+      <c r="T57" s="33"/>
+      <c r="U57" s="33">
         <v>2.0790000000000002</v>
-      </c>
-      <c r="T57" s="24">
-        <v>1</v>
-      </c>
-      <c r="U57" s="25">
-        <v>1</v>
       </c>
       <c r="V57" s="31"/>
       <c r="W57" s="60"/>
@@ -5346,30 +5349,30 @@
       <c r="J58" s="33">
         <v>946</v>
       </c>
-      <c r="K58" s="16">
-        <v>0</v>
-      </c>
-      <c r="L58" s="16">
-        <v>1</v>
-      </c>
-      <c r="M58" s="16" t="s">
+      <c r="K58" s="24">
+        <v>0</v>
+      </c>
+      <c r="L58" s="25">
+        <v>1</v>
+      </c>
+      <c r="M58" s="16">
+        <v>0</v>
+      </c>
+      <c r="N58" s="16">
+        <v>1</v>
+      </c>
+      <c r="O58" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="N58" s="24"/>
-      <c r="O58" s="24"/>
-      <c r="P58" s="24" t="s">
+      <c r="P58" s="24"/>
+      <c r="Q58" s="24"/>
+      <c r="R58" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="Q58" s="24"/>
-      <c r="R58" s="33"/>
-      <c r="S58" s="33">
+      <c r="S58" s="24"/>
+      <c r="T58" s="33"/>
+      <c r="U58" s="33">
         <v>2.5539999999999998</v>
-      </c>
-      <c r="T58" s="24">
-        <v>0</v>
-      </c>
-      <c r="U58" s="25">
-        <v>1</v>
       </c>
       <c r="V58" s="31"/>
       <c r="W58" s="60"/>
@@ -5411,30 +5414,30 @@
       <c r="J59" s="33">
         <v>481</v>
       </c>
-      <c r="K59" s="21">
-        <v>0</v>
-      </c>
-      <c r="L59" s="21">
-        <v>1</v>
-      </c>
-      <c r="M59" s="21" t="s">
+      <c r="K59" s="24">
+        <v>1</v>
+      </c>
+      <c r="L59" s="25">
+        <v>1</v>
+      </c>
+      <c r="M59" s="21">
+        <v>0</v>
+      </c>
+      <c r="N59" s="21">
+        <v>1</v>
+      </c>
+      <c r="O59" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="N59" s="24"/>
-      <c r="O59" s="24"/>
-      <c r="P59" s="24">
+      <c r="P59" s="24"/>
+      <c r="Q59" s="24"/>
+      <c r="R59" s="24">
         <v>0.81100000000000005</v>
       </c>
-      <c r="Q59" s="24"/>
-      <c r="R59" s="33"/>
-      <c r="S59" s="33">
+      <c r="S59" s="24"/>
+      <c r="T59" s="33"/>
+      <c r="U59" s="33">
         <v>2.08</v>
-      </c>
-      <c r="T59" s="24">
-        <v>1</v>
-      </c>
-      <c r="U59" s="25">
-        <v>1</v>
       </c>
       <c r="V59" s="31"/>
       <c r="W59" s="60"/>
@@ -5476,32 +5479,32 @@
       <c r="J60" s="35">
         <v>434</v>
       </c>
-      <c r="K60" s="35">
-        <v>1</v>
-      </c>
-      <c r="L60" s="8">
-        <v>1</v>
-      </c>
-      <c r="M60" s="8" t="s">
+      <c r="K60" s="36">
+        <v>0</v>
+      </c>
+      <c r="L60" s="37">
+        <v>1</v>
+      </c>
+      <c r="M60" s="35">
+        <v>1</v>
+      </c>
+      <c r="N60" s="8">
+        <v>1</v>
+      </c>
+      <c r="O60" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="N60" s="36">
+      <c r="P60" s="36">
         <v>3</v>
       </c>
-      <c r="O60" s="36"/>
-      <c r="P60" s="36" t="s">
+      <c r="Q60" s="36"/>
+      <c r="R60" s="36" t="s">
         <v>129</v>
       </c>
-      <c r="Q60" s="36"/>
-      <c r="R60" s="35"/>
-      <c r="S60" s="35">
+      <c r="S60" s="36"/>
+      <c r="T60" s="35"/>
+      <c r="U60" s="35">
         <v>2.09</v>
-      </c>
-      <c r="T60" s="36">
-        <v>0</v>
-      </c>
-      <c r="U60" s="37">
-        <v>1</v>
       </c>
       <c r="V60" s="38"/>
       <c r="W60" s="59" t="s">
@@ -5547,32 +5550,32 @@
       <c r="J61" s="40">
         <v>357</v>
       </c>
-      <c r="K61" s="40">
-        <v>1</v>
-      </c>
-      <c r="L61" s="13">
-        <v>1</v>
-      </c>
-      <c r="M61" s="13" t="s">
+      <c r="K61" s="41">
+        <v>0</v>
+      </c>
+      <c r="L61" s="42">
+        <v>1</v>
+      </c>
+      <c r="M61" s="40">
+        <v>1</v>
+      </c>
+      <c r="N61" s="13">
+        <v>1</v>
+      </c>
+      <c r="O61" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="N61" s="41">
+      <c r="P61" s="41">
         <v>3</v>
       </c>
-      <c r="O61" s="41"/>
-      <c r="P61" s="41" t="s">
+      <c r="Q61" s="41"/>
+      <c r="R61" s="41" t="s">
         <v>132</v>
       </c>
-      <c r="Q61" s="41"/>
-      <c r="R61" s="40"/>
-      <c r="S61" s="40">
+      <c r="S61" s="41"/>
+      <c r="T61" s="40"/>
+      <c r="U61" s="40">
         <v>2.0499999999999998</v>
-      </c>
-      <c r="T61" s="41">
-        <v>0</v>
-      </c>
-      <c r="U61" s="42">
-        <v>1</v>
       </c>
       <c r="V61" s="38"/>
       <c r="W61" s="59"/>
@@ -5616,32 +5619,32 @@
       <c r="J62" s="40">
         <v>203</v>
       </c>
-      <c r="K62" s="40">
-        <v>1</v>
-      </c>
-      <c r="L62" s="40">
-        <v>1</v>
-      </c>
-      <c r="M62" s="40" t="s">
+      <c r="K62" s="41">
+        <v>1</v>
+      </c>
+      <c r="L62" s="42">
+        <v>0</v>
+      </c>
+      <c r="M62" s="40">
+        <v>1</v>
+      </c>
+      <c r="N62" s="40">
+        <v>1</v>
+      </c>
+      <c r="O62" s="40" t="s">
         <v>128</v>
       </c>
-      <c r="N62" s="41">
+      <c r="P62" s="41">
         <v>3</v>
       </c>
-      <c r="O62" s="41"/>
-      <c r="P62" s="41" t="s">
+      <c r="Q62" s="41"/>
+      <c r="R62" s="41" t="s">
         <v>134</v>
       </c>
-      <c r="Q62" s="41"/>
-      <c r="R62" s="41"/>
-      <c r="S62" s="41">
+      <c r="S62" s="41"/>
+      <c r="T62" s="41"/>
+      <c r="U62" s="41">
         <v>2.74</v>
-      </c>
-      <c r="T62" s="41">
-        <v>1</v>
-      </c>
-      <c r="U62" s="42">
-        <v>0</v>
       </c>
       <c r="V62" s="38"/>
       <c r="W62" s="59"/>
@@ -5685,32 +5688,32 @@
       <c r="J63" s="40">
         <v>308</v>
       </c>
-      <c r="K63" s="40">
-        <v>1</v>
-      </c>
-      <c r="L63" s="40">
-        <v>1</v>
-      </c>
-      <c r="M63" s="40" t="s">
+      <c r="K63" s="41">
+        <v>0</v>
+      </c>
+      <c r="L63" s="42">
+        <v>1</v>
+      </c>
+      <c r="M63" s="40">
+        <v>1</v>
+      </c>
+      <c r="N63" s="40">
+        <v>1</v>
+      </c>
+      <c r="O63" s="40" t="s">
         <v>128</v>
       </c>
-      <c r="N63" s="41">
+      <c r="P63" s="41">
         <v>3</v>
       </c>
-      <c r="O63" s="41"/>
-      <c r="P63" s="41" t="s">
+      <c r="Q63" s="41"/>
+      <c r="R63" s="41" t="s">
         <v>136</v>
       </c>
-      <c r="Q63" s="41"/>
-      <c r="R63" s="41"/>
-      <c r="S63" s="41">
+      <c r="S63" s="41"/>
+      <c r="T63" s="41"/>
+      <c r="U63" s="41">
         <v>1.86</v>
-      </c>
-      <c r="T63" s="41">
-        <v>0</v>
-      </c>
-      <c r="U63" s="42">
-        <v>1</v>
       </c>
       <c r="V63" s="38"/>
       <c r="W63" s="59"/>
@@ -5757,28 +5760,28 @@
       <c r="K64" s="16">
         <v>1</v>
       </c>
-      <c r="L64" s="16">
-        <v>1</v>
-      </c>
-      <c r="M64" s="30" t="s">
+      <c r="L64" s="17">
+        <v>1</v>
+      </c>
+      <c r="M64" s="16">
+        <v>1</v>
+      </c>
+      <c r="N64" s="16">
+        <v>1</v>
+      </c>
+      <c r="O64" s="30" t="s">
         <v>98</v>
       </c>
-      <c r="N64" s="16">
+      <c r="P64" s="16">
         <v>3</v>
       </c>
-      <c r="O64" s="16"/>
-      <c r="P64" s="16" t="s">
+      <c r="Q64" s="16"/>
+      <c r="R64" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="Q64" s="16"/>
-      <c r="R64" s="16"/>
       <c r="S64" s="16"/>
-      <c r="T64" s="16">
-        <v>1</v>
-      </c>
-      <c r="U64" s="17">
-        <v>1</v>
-      </c>
+      <c r="T64" s="16"/>
+      <c r="U64" s="16"/>
       <c r="V64" s="43"/>
       <c r="W64" s="60" t="s">
         <v>142</v>
@@ -5824,24 +5827,24 @@
       <c r="K65" s="21">
         <v>1</v>
       </c>
-      <c r="L65" s="21"/>
-      <c r="M65" s="33" t="s">
+      <c r="L65" s="22"/>
+      <c r="M65" s="21">
+        <v>1</v>
+      </c>
+      <c r="N65" s="21"/>
+      <c r="O65" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="N65" s="21">
+      <c r="P65" s="21">
         <v>4</v>
       </c>
-      <c r="O65" s="21"/>
-      <c r="P65" s="21" t="s">
+      <c r="Q65" s="21"/>
+      <c r="R65" s="21" t="s">
         <v>141</v>
       </c>
-      <c r="Q65" s="21"/>
-      <c r="R65" s="21"/>
       <c r="S65" s="21"/>
-      <c r="T65" s="21">
-        <v>1</v>
-      </c>
-      <c r="U65" s="22"/>
+      <c r="T65" s="21"/>
+      <c r="U65" s="21"/>
       <c r="V65" s="43"/>
       <c r="W65" s="60"/>
       <c r="X65" s="60" t="s">
@@ -5882,27 +5885,27 @@
       <c r="J66" s="30">
         <v>4400</v>
       </c>
-      <c r="K66" s="33">
-        <v>1</v>
-      </c>
-      <c r="L66" s="33"/>
-      <c r="M66" s="44" t="s">
+      <c r="K66" s="45">
+        <v>1</v>
+      </c>
+      <c r="L66" s="46"/>
+      <c r="M66" s="33">
+        <v>1</v>
+      </c>
+      <c r="N66" s="33"/>
+      <c r="O66" s="44" t="s">
         <v>98</v>
       </c>
-      <c r="N66" s="45">
+      <c r="P66" s="45">
         <v>3</v>
       </c>
-      <c r="O66" s="33"/>
-      <c r="P66" s="45" t="s">
+      <c r="Q66" s="33"/>
+      <c r="R66" s="45" t="s">
         <v>141</v>
       </c>
-      <c r="Q66" s="45"/>
-      <c r="R66" s="45"/>
-      <c r="S66" s="33"/>
-      <c r="T66" s="45">
-        <v>1</v>
-      </c>
-      <c r="U66" s="46"/>
+      <c r="S66" s="45"/>
+      <c r="T66" s="45"/>
+      <c r="U66" s="33"/>
       <c r="V66" s="43"/>
       <c r="W66" s="60"/>
       <c r="X66" s="60" t="s">
@@ -5944,30 +5947,30 @@
         <v>4597</v>
       </c>
       <c r="K67" s="21">
-        <v>0</v>
-      </c>
-      <c r="L67" s="21">
-        <v>1</v>
-      </c>
-      <c r="M67" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="L67" s="22">
+        <v>1</v>
+      </c>
+      <c r="M67" s="21">
+        <v>0</v>
+      </c>
+      <c r="N67" s="21">
+        <v>1</v>
+      </c>
+      <c r="O67" s="44" t="s">
         <v>98</v>
       </c>
-      <c r="N67" s="21">
+      <c r="P67" s="21">
         <v>3</v>
       </c>
-      <c r="O67" s="21"/>
-      <c r="P67" s="21" t="s">
+      <c r="Q67" s="21"/>
+      <c r="R67" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="Q67" s="21"/>
-      <c r="R67" s="21"/>
       <c r="S67" s="21"/>
-      <c r="T67" s="21">
-        <v>1</v>
-      </c>
-      <c r="U67" s="22">
-        <v>1</v>
-      </c>
+      <c r="T67" s="21"/>
+      <c r="U67" s="21"/>
       <c r="V67" s="43"/>
       <c r="W67" s="60"/>
       <c r="X67" s="60" t="s">
@@ -6008,31 +6011,31 @@
       <c r="J68" s="33">
         <v>1825</v>
       </c>
-      <c r="K68" s="33">
-        <v>0</v>
-      </c>
-      <c r="L68" s="16">
-        <v>1</v>
-      </c>
-      <c r="M68" s="44" t="s">
+      <c r="K68" s="45">
+        <v>1</v>
+      </c>
+      <c r="L68" s="47">
+        <v>1</v>
+      </c>
+      <c r="M68" s="33">
+        <v>0</v>
+      </c>
+      <c r="N68" s="16">
+        <v>1</v>
+      </c>
+      <c r="O68" s="44" t="s">
         <v>98</v>
       </c>
-      <c r="N68" s="45">
+      <c r="P68" s="45">
         <v>4</v>
       </c>
-      <c r="O68" s="45"/>
-      <c r="P68" s="45" t="s">
+      <c r="Q68" s="45"/>
+      <c r="R68" s="45" t="s">
         <v>148</v>
       </c>
-      <c r="Q68" s="45"/>
-      <c r="R68" s="45"/>
       <c r="S68" s="45"/>
-      <c r="T68" s="45">
-        <v>1</v>
-      </c>
-      <c r="U68" s="47">
-        <v>1</v>
-      </c>
+      <c r="T68" s="45"/>
+      <c r="U68" s="45"/>
       <c r="V68" s="43"/>
       <c r="W68" s="60"/>
       <c r="X68" s="60" t="s">
@@ -6073,31 +6076,31 @@
       <c r="J69" s="33">
         <v>1825</v>
       </c>
-      <c r="K69" s="33">
-        <v>0</v>
-      </c>
-      <c r="L69" s="21">
-        <v>1</v>
-      </c>
-      <c r="M69" s="44" t="s">
+      <c r="K69" s="45">
+        <v>1</v>
+      </c>
+      <c r="L69" s="47">
+        <v>1</v>
+      </c>
+      <c r="M69" s="33">
+        <v>0</v>
+      </c>
+      <c r="N69" s="21">
+        <v>1</v>
+      </c>
+      <c r="O69" s="44" t="s">
         <v>98</v>
       </c>
-      <c r="N69" s="45">
+      <c r="P69" s="45">
         <v>3</v>
       </c>
-      <c r="O69" s="45"/>
-      <c r="P69" s="45" t="s">
+      <c r="Q69" s="45"/>
+      <c r="R69" s="45" t="s">
         <v>149</v>
       </c>
-      <c r="Q69" s="45"/>
-      <c r="R69" s="45"/>
       <c r="S69" s="45"/>
-      <c r="T69" s="45">
-        <v>1</v>
-      </c>
-      <c r="U69" s="47">
-        <v>1</v>
-      </c>
+      <c r="T69" s="45"/>
+      <c r="U69" s="45"/>
       <c r="V69" s="43"/>
       <c r="W69" s="60"/>
       <c r="X69" s="60" t="s">
@@ -6141,31 +6144,31 @@
       <c r="K70" s="8">
         <v>1</v>
       </c>
-      <c r="L70" s="8"/>
-      <c r="M70" s="8" t="s">
+      <c r="L70" s="9">
+        <v>1</v>
+      </c>
+      <c r="M70" s="8">
+        <v>1</v>
+      </c>
+      <c r="N70" s="8"/>
+      <c r="O70" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="N70" s="8">
+      <c r="P70" s="8">
         <v>8</v>
       </c>
-      <c r="O70" s="8" t="s">
+      <c r="Q70" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="P70" s="8" t="s">
+      <c r="R70" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="Q70" s="8"/>
-      <c r="R70" s="8" t="s">
+      <c r="S70" s="8"/>
+      <c r="T70" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="S70" s="8" t="s">
+      <c r="U70" s="8" t="s">
         <v>157</v>
-      </c>
-      <c r="T70" s="8">
-        <v>1</v>
-      </c>
-      <c r="U70" s="9">
-        <v>1</v>
       </c>
       <c r="V70" s="10" t="s">
         <v>158</v>
@@ -6212,28 +6215,28 @@
         <v>456</v>
       </c>
       <c r="K71" s="21">
-        <v>0</v>
-      </c>
-      <c r="L71" s="21">
-        <v>0</v>
-      </c>
-      <c r="M71" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="L71" s="22">
+        <v>1</v>
+      </c>
+      <c r="M71" s="21">
+        <v>0</v>
+      </c>
+      <c r="N71" s="21">
+        <v>0</v>
+      </c>
+      <c r="O71" s="21" t="s">
         <v>162</v>
       </c>
-      <c r="N71" s="21">
+      <c r="P71" s="21">
         <v>4</v>
       </c>
-      <c r="O71" s="21"/>
-      <c r="P71" s="21"/>
       <c r="Q71" s="21"/>
       <c r="R71" s="21"/>
       <c r="S71" s="21"/>
-      <c r="T71" s="21">
-        <v>1</v>
-      </c>
-      <c r="U71" s="22">
-        <v>1</v>
-      </c>
+      <c r="T71" s="21"/>
+      <c r="U71" s="21"/>
       <c r="V71" s="18"/>
       <c r="W71" s="60" t="s">
         <v>220</v>
@@ -6281,28 +6284,28 @@
       <c r="K72" s="8">
         <v>1</v>
       </c>
-      <c r="L72" s="8">
-        <v>1</v>
-      </c>
-      <c r="M72" s="8" t="s">
-        <v>166</v>
+      <c r="L72" s="9">
+        <v>1</v>
+      </c>
+      <c r="M72" s="8">
+        <v>1</v>
       </c>
       <c r="N72" s="8">
+        <v>1</v>
+      </c>
+      <c r="O72" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="P72" s="8">
         <v>3</v>
       </c>
-      <c r="O72" s="8"/>
-      <c r="P72" s="8" t="s">
+      <c r="Q72" s="8"/>
+      <c r="R72" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="Q72" s="8"/>
-      <c r="R72" s="8"/>
       <c r="S72" s="8"/>
-      <c r="T72" s="8">
-        <v>1</v>
-      </c>
-      <c r="U72" s="9">
-        <v>1</v>
-      </c>
+      <c r="T72" s="8"/>
+      <c r="U72" s="8"/>
       <c r="V72" s="10"/>
       <c r="W72" s="59"/>
       <c r="X72" s="59" t="s">
@@ -6344,26 +6347,26 @@
         <v>71</v>
       </c>
       <c r="K73" s="13">
-        <v>0</v>
-      </c>
-      <c r="L73" s="13"/>
-      <c r="M73" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="L73" s="14"/>
+      <c r="M73" s="13">
+        <v>0</v>
+      </c>
+      <c r="N73" s="13"/>
+      <c r="O73" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="N73" s="13">
+      <c r="P73" s="13">
         <v>3</v>
       </c>
-      <c r="O73" s="13"/>
-      <c r="P73" s="13" t="s">
+      <c r="Q73" s="13"/>
+      <c r="R73" s="13" t="s">
         <v>169</v>
       </c>
-      <c r="Q73" s="13"/>
-      <c r="R73" s="13"/>
       <c r="S73" s="13"/>
-      <c r="T73" s="13">
-        <v>1</v>
-      </c>
-      <c r="U73" s="14"/>
+      <c r="T73" s="13"/>
+      <c r="U73" s="13"/>
       <c r="V73" s="10"/>
       <c r="W73" s="59"/>
       <c r="X73" s="59"/>
@@ -6405,33 +6408,33 @@
       <c r="K74" s="16">
         <v>1</v>
       </c>
-      <c r="L74" s="16">
-        <v>1</v>
-      </c>
-      <c r="M74" s="30" t="s">
+      <c r="L74" s="17">
+        <v>1</v>
+      </c>
+      <c r="M74" s="16">
+        <v>1</v>
+      </c>
+      <c r="N74" s="16">
+        <v>1</v>
+      </c>
+      <c r="O74" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="N74" s="16">
+      <c r="P74" s="16">
         <v>7</v>
       </c>
-      <c r="O74" s="16">
+      <c r="Q74" s="16">
         <v>0.26</v>
       </c>
-      <c r="P74" s="16" t="s">
+      <c r="R74" s="16" t="s">
         <v>173</v>
       </c>
-      <c r="Q74" s="44"/>
-      <c r="R74" s="16" t="s">
+      <c r="S74" s="44"/>
+      <c r="T74" s="16" t="s">
         <v>174</v>
       </c>
-      <c r="S74" s="16">
+      <c r="U74" s="16">
         <v>0.85</v>
-      </c>
-      <c r="T74" s="16">
-        <v>1</v>
-      </c>
-      <c r="U74" s="17">
-        <v>1</v>
       </c>
       <c r="V74" s="18"/>
       <c r="W74" s="60"/>
@@ -6476,33 +6479,33 @@
       <c r="K75" s="21">
         <v>1</v>
       </c>
-      <c r="L75" s="21">
-        <v>1</v>
-      </c>
-      <c r="M75" s="30" t="s">
+      <c r="L75" s="22">
+        <v>1</v>
+      </c>
+      <c r="M75" s="21">
+        <v>1</v>
+      </c>
+      <c r="N75" s="21">
+        <v>1</v>
+      </c>
+      <c r="O75" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="N75" s="21">
+      <c r="P75" s="21">
         <v>3</v>
       </c>
-      <c r="O75" s="21">
+      <c r="Q75" s="21">
         <v>0.23</v>
       </c>
-      <c r="P75" s="21" t="s">
+      <c r="R75" s="21" t="s">
         <v>176</v>
       </c>
-      <c r="Q75" s="44"/>
-      <c r="R75" s="21" t="s">
+      <c r="S75" s="44"/>
+      <c r="T75" s="21" t="s">
         <v>177</v>
       </c>
-      <c r="S75" s="21">
+      <c r="U75" s="21">
         <v>1.29</v>
-      </c>
-      <c r="T75" s="21">
-        <v>1</v>
-      </c>
-      <c r="U75" s="22">
-        <v>1</v>
       </c>
       <c r="V75" s="18"/>
       <c r="W75" s="60"/>
@@ -6544,36 +6547,36 @@
       <c r="J76" s="49">
         <v>512</v>
       </c>
-      <c r="K76" s="30">
-        <v>1</v>
-      </c>
-      <c r="L76" s="30">
-        <v>1</v>
-      </c>
-      <c r="M76" s="30" t="s">
+      <c r="K76" s="16">
+        <v>0</v>
+      </c>
+      <c r="L76" s="50">
+        <v>0</v>
+      </c>
+      <c r="M76" s="30">
+        <v>1</v>
+      </c>
+      <c r="N76" s="30">
+        <v>1</v>
+      </c>
+      <c r="O76" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="N76" s="44">
+      <c r="P76" s="44">
         <v>7</v>
       </c>
-      <c r="O76" s="44">
+      <c r="Q76" s="44">
         <v>0.48</v>
       </c>
-      <c r="P76" s="44" t="s">
+      <c r="R76" s="44" t="s">
         <v>179</v>
       </c>
-      <c r="Q76" s="44"/>
-      <c r="R76" s="44" t="s">
+      <c r="S76" s="44"/>
+      <c r="T76" s="44" t="s">
         <v>180</v>
       </c>
-      <c r="S76" s="44">
+      <c r="U76" s="44">
         <v>0.56999999999999995</v>
-      </c>
-      <c r="T76" s="16">
-        <v>0</v>
-      </c>
-      <c r="U76" s="50">
-        <v>0</v>
       </c>
       <c r="V76" s="51"/>
       <c r="W76" s="60"/>
@@ -6615,36 +6618,36 @@
       <c r="J77" s="48">
         <v>512</v>
       </c>
-      <c r="K77" s="30">
-        <v>1</v>
-      </c>
-      <c r="L77" s="30">
-        <v>1</v>
-      </c>
-      <c r="M77" s="30" t="s">
+      <c r="K77" s="21">
+        <v>1</v>
+      </c>
+      <c r="L77" s="50">
+        <v>1</v>
+      </c>
+      <c r="M77" s="30">
+        <v>1</v>
+      </c>
+      <c r="N77" s="30">
+        <v>1</v>
+      </c>
+      <c r="O77" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="N77" s="44">
+      <c r="P77" s="44">
         <v>3</v>
       </c>
-      <c r="O77" s="44">
+      <c r="Q77" s="44">
         <v>0.23</v>
       </c>
-      <c r="P77" s="44" t="s">
+      <c r="R77" s="44" t="s">
         <v>182</v>
       </c>
-      <c r="Q77" s="44"/>
-      <c r="R77" s="44" t="s">
+      <c r="S77" s="44"/>
+      <c r="T77" s="44" t="s">
         <v>177</v>
       </c>
-      <c r="S77" s="44">
+      <c r="U77" s="44">
         <v>1.3</v>
-      </c>
-      <c r="T77" s="21">
-        <v>1</v>
-      </c>
-      <c r="U77" s="50">
-        <v>1</v>
       </c>
       <c r="V77" s="51"/>
       <c r="W77" s="60"/>
@@ -6686,36 +6689,36 @@
       <c r="J78" s="44">
         <v>12705</v>
       </c>
-      <c r="K78" s="30">
-        <v>1</v>
-      </c>
-      <c r="L78" s="30">
-        <v>1</v>
-      </c>
-      <c r="M78" s="30" t="s">
+      <c r="K78" s="16">
+        <v>1</v>
+      </c>
+      <c r="L78" s="50">
+        <v>1</v>
+      </c>
+      <c r="M78" s="30">
+        <v>1</v>
+      </c>
+      <c r="N78" s="30">
+        <v>1</v>
+      </c>
+      <c r="O78" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="N78" s="44">
+      <c r="P78" s="44">
         <v>8</v>
       </c>
-      <c r="O78" s="44">
+      <c r="Q78" s="44">
         <v>0.31</v>
       </c>
-      <c r="P78" s="44" t="s">
+      <c r="R78" s="44" t="s">
         <v>184</v>
       </c>
-      <c r="Q78" s="44"/>
-      <c r="R78" s="44" t="s">
+      <c r="S78" s="44"/>
+      <c r="T78" s="44" t="s">
         <v>185</v>
       </c>
-      <c r="S78" s="44">
+      <c r="U78" s="44">
         <v>1.25</v>
-      </c>
-      <c r="T78" s="16">
-        <v>1</v>
-      </c>
-      <c r="U78" s="50">
-        <v>1</v>
       </c>
       <c r="V78" s="51"/>
       <c r="W78" s="60"/>
@@ -6757,36 +6760,36 @@
       <c r="J79" s="44">
         <v>8144</v>
       </c>
-      <c r="K79" s="30">
-        <v>1</v>
-      </c>
-      <c r="L79" s="30">
-        <v>1</v>
-      </c>
-      <c r="M79" s="30" t="s">
+      <c r="K79" s="21">
+        <v>1</v>
+      </c>
+      <c r="L79" s="50">
+        <v>1</v>
+      </c>
+      <c r="M79" s="30">
+        <v>1</v>
+      </c>
+      <c r="N79" s="30">
+        <v>1</v>
+      </c>
+      <c r="O79" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="N79" s="44">
+      <c r="P79" s="44">
         <v>3</v>
       </c>
-      <c r="O79" s="44">
+      <c r="Q79" s="44">
         <v>0.3</v>
       </c>
-      <c r="P79" s="44" t="s">
+      <c r="R79" s="44" t="s">
         <v>187</v>
       </c>
-      <c r="Q79" s="44"/>
-      <c r="R79" s="44" t="s">
+      <c r="S79" s="44"/>
+      <c r="T79" s="44" t="s">
         <v>188</v>
       </c>
-      <c r="S79" s="44">
+      <c r="U79" s="44">
         <v>1.78</v>
-      </c>
-      <c r="T79" s="21">
-        <v>1</v>
-      </c>
-      <c r="U79" s="50">
-        <v>1</v>
       </c>
       <c r="V79" s="51"/>
       <c r="W79" s="60"/>
@@ -6828,36 +6831,36 @@
       <c r="J80" s="44">
         <v>16755</v>
       </c>
-      <c r="K80" s="30">
-        <v>1</v>
-      </c>
-      <c r="L80" s="30">
-        <v>1</v>
-      </c>
-      <c r="M80" s="30" t="s">
+      <c r="K80" s="16">
+        <v>1</v>
+      </c>
+      <c r="L80" s="50">
+        <v>1</v>
+      </c>
+      <c r="M80" s="30">
+        <v>1</v>
+      </c>
+      <c r="N80" s="30">
+        <v>1</v>
+      </c>
+      <c r="O80" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="N80" s="44">
+      <c r="P80" s="44">
         <v>5</v>
       </c>
-      <c r="O80" s="44">
+      <c r="Q80" s="44">
         <v>0.19</v>
       </c>
-      <c r="P80" s="44" t="s">
+      <c r="R80" s="44" t="s">
         <v>190</v>
       </c>
-      <c r="Q80" s="44"/>
-      <c r="R80" s="44" t="s">
+      <c r="S80" s="44"/>
+      <c r="T80" s="44" t="s">
         <v>191</v>
       </c>
-      <c r="S80" s="44">
+      <c r="U80" s="44">
         <v>1.84</v>
-      </c>
-      <c r="T80" s="16">
-        <v>1</v>
-      </c>
-      <c r="U80" s="50">
-        <v>1</v>
       </c>
       <c r="V80" s="51"/>
       <c r="W80" s="60"/>
@@ -6899,36 +6902,36 @@
       <c r="J81" s="44">
         <v>16755</v>
       </c>
-      <c r="K81" s="30">
-        <v>1</v>
-      </c>
-      <c r="L81" s="30">
-        <v>1</v>
-      </c>
-      <c r="M81" s="30" t="s">
+      <c r="K81" s="21">
+        <v>1</v>
+      </c>
+      <c r="L81" s="50">
+        <v>1</v>
+      </c>
+      <c r="M81" s="30">
+        <v>1</v>
+      </c>
+      <c r="N81" s="30">
+        <v>1</v>
+      </c>
+      <c r="O81" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="N81" s="44">
+      <c r="P81" s="44">
         <v>5</v>
       </c>
-      <c r="O81" s="44">
+      <c r="Q81" s="44">
         <v>0.99</v>
       </c>
-      <c r="P81" s="44" t="s">
+      <c r="R81" s="44" t="s">
         <v>193</v>
       </c>
-      <c r="Q81" s="44"/>
-      <c r="R81" s="44" t="s">
+      <c r="S81" s="44"/>
+      <c r="T81" s="44" t="s">
         <v>194</v>
       </c>
-      <c r="S81" s="44">
+      <c r="U81" s="44">
         <v>1.32</v>
-      </c>
-      <c r="T81" s="21">
-        <v>1</v>
-      </c>
-      <c r="U81" s="50">
-        <v>1</v>
       </c>
       <c r="V81" s="51"/>
       <c r="W81" s="60"/>
@@ -6970,36 +6973,36 @@
       <c r="J82" s="49">
         <v>16755</v>
       </c>
-      <c r="K82" s="30">
-        <v>1</v>
-      </c>
-      <c r="L82" s="30">
-        <v>1</v>
-      </c>
-      <c r="M82" s="30" t="s">
+      <c r="K82" s="16">
+        <v>1</v>
+      </c>
+      <c r="L82" s="50">
+        <v>1</v>
+      </c>
+      <c r="M82" s="30">
+        <v>1</v>
+      </c>
+      <c r="N82" s="30">
+        <v>1</v>
+      </c>
+      <c r="O82" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="N82" s="44">
+      <c r="P82" s="44">
         <v>7</v>
       </c>
-      <c r="O82" s="44">
+      <c r="Q82" s="44">
         <v>0.63</v>
       </c>
-      <c r="P82" s="44" t="s">
+      <c r="R82" s="44" t="s">
         <v>196</v>
       </c>
-      <c r="Q82" s="44"/>
-      <c r="R82" s="44" t="s">
+      <c r="S82" s="44"/>
+      <c r="T82" s="44" t="s">
         <v>197</v>
       </c>
-      <c r="S82" s="44">
+      <c r="U82" s="44">
         <v>1.31</v>
-      </c>
-      <c r="T82" s="16">
-        <v>1</v>
-      </c>
-      <c r="U82" s="50">
-        <v>1</v>
       </c>
       <c r="V82" s="51"/>
       <c r="W82" s="60"/>
@@ -7041,36 +7044,36 @@
       <c r="J83" s="44">
         <v>6040</v>
       </c>
-      <c r="K83" s="30">
-        <v>1</v>
-      </c>
-      <c r="L83" s="30">
-        <v>1</v>
-      </c>
-      <c r="M83" s="30" t="s">
+      <c r="K83" s="21">
+        <v>1</v>
+      </c>
+      <c r="L83" s="50">
+        <v>1</v>
+      </c>
+      <c r="M83" s="30">
+        <v>1</v>
+      </c>
+      <c r="N83" s="30">
+        <v>1</v>
+      </c>
+      <c r="O83" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="N83" s="44">
+      <c r="P83" s="44">
         <v>6</v>
       </c>
-      <c r="O83" s="44">
+      <c r="Q83" s="44">
         <v>0.75</v>
       </c>
-      <c r="P83" s="44" t="s">
+      <c r="R83" s="44" t="s">
         <v>199</v>
       </c>
-      <c r="Q83" s="44"/>
-      <c r="R83" s="44" t="s">
+      <c r="S83" s="44"/>
+      <c r="T83" s="44" t="s">
         <v>200</v>
       </c>
-      <c r="S83" s="44">
+      <c r="U83" s="44">
         <v>0.68</v>
-      </c>
-      <c r="T83" s="21">
-        <v>1</v>
-      </c>
-      <c r="U83" s="50">
-        <v>1</v>
       </c>
       <c r="V83" s="51"/>
       <c r="W83" s="60"/>
@@ -7115,27 +7118,27 @@
       <c r="K84" s="8">
         <v>0</v>
       </c>
-      <c r="L84" s="8">
-        <v>1</v>
-      </c>
-      <c r="M84" s="8" t="s">
+      <c r="L84" s="9">
+        <v>1</v>
+      </c>
+      <c r="M84" s="8">
+        <v>0</v>
+      </c>
+      <c r="N84" s="8">
+        <v>1</v>
+      </c>
+      <c r="O84" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="N84" s="8">
+      <c r="P84" s="8">
         <v>2</v>
       </c>
-      <c r="O84" s="8"/>
-      <c r="P84" s="8"/>
       <c r="Q84" s="8"/>
       <c r="R84" s="8"/>
-      <c r="S84" s="8" t="s">
+      <c r="S84" s="8"/>
+      <c r="T84" s="8"/>
+      <c r="U84" s="8" t="s">
         <v>205</v>
-      </c>
-      <c r="T84" s="8">
-        <v>0</v>
-      </c>
-      <c r="U84" s="9">
-        <v>1</v>
       </c>
       <c r="V84" s="10"/>
       <c r="W84" s="59" t="s">
@@ -7182,27 +7185,27 @@
       <c r="K85" s="13">
         <v>0</v>
       </c>
-      <c r="L85" s="13">
-        <v>1</v>
-      </c>
-      <c r="M85" s="13" t="s">
+      <c r="L85" s="14">
+        <v>1</v>
+      </c>
+      <c r="M85" s="13">
+        <v>0</v>
+      </c>
+      <c r="N85" s="13">
+        <v>1</v>
+      </c>
+      <c r="O85" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="N85" s="13">
+      <c r="P85" s="13">
         <v>2</v>
       </c>
-      <c r="O85" s="13"/>
-      <c r="P85" s="13"/>
       <c r="Q85" s="13"/>
       <c r="R85" s="13"/>
-      <c r="S85" s="13" t="s">
+      <c r="S85" s="13"/>
+      <c r="T85" s="13"/>
+      <c r="U85" s="13" t="s">
         <v>208</v>
-      </c>
-      <c r="T85" s="13">
-        <v>0</v>
-      </c>
-      <c r="U85" s="14">
-        <v>1</v>
       </c>
       <c r="V85" s="10"/>
       <c r="W85" s="59"/>
@@ -7247,27 +7250,27 @@
       <c r="K86" s="53">
         <v>0</v>
       </c>
-      <c r="L86" s="53">
-        <v>1</v>
-      </c>
-      <c r="M86" s="53" t="s">
+      <c r="L86" s="56">
+        <v>1</v>
+      </c>
+      <c r="M86" s="53">
+        <v>0</v>
+      </c>
+      <c r="N86" s="53">
+        <v>1</v>
+      </c>
+      <c r="O86" s="53" t="s">
         <v>104</v>
       </c>
-      <c r="N86" s="53">
+      <c r="P86" s="53">
         <v>2</v>
       </c>
-      <c r="O86" s="53"/>
-      <c r="P86" s="53"/>
-      <c r="Q86" s="55"/>
+      <c r="Q86" s="53"/>
       <c r="R86" s="53"/>
-      <c r="S86" s="53" t="s">
+      <c r="S86" s="55"/>
+      <c r="T86" s="53"/>
+      <c r="U86" s="53" t="s">
         <v>211</v>
-      </c>
-      <c r="T86" s="53">
-        <v>0</v>
-      </c>
-      <c r="U86" s="56">
-        <v>1</v>
       </c>
       <c r="V86" s="18"/>
       <c r="W86" s="60"/>
@@ -7280,7 +7283,7 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="A2:B86 F2:F86 Q2:S86 M2:O86 J2:K86" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="A2:B86 F2:F86 S2:U86 O2:Q86 J2:M86" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>AND(ISNUMBER(A2),(NOT(OR(NOT(ISERROR(DATEVALUE(A2))), AND(ISNUMBER(A2), LEFT(CELL("format", A2))="D")))))</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" sqref="H2:H86" xr:uid="{00000000-0002-0000-0000-000001000000}">

--- a/Literature-review/data/data_extraction.xlsx
+++ b/Literature-review/data/data_extraction.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\enric\Desktop\Paper Taxometrics Neurodevelopmental\__GITHUB\Literature-review\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8365712-9D83-4ACA-A9A1-6B8C95E569D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED9E419D-29C9-4687-AD19-3B9B51F16F31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,9 +43,6 @@
     <t>Journal</t>
   </si>
   <si>
-    <t>Target_disorder</t>
-  </si>
-  <si>
     <t>Population_type</t>
   </si>
   <si>
@@ -718,6 +715,9 @@
   </si>
   <si>
     <t>MAMBAC; MAXSLOPE</t>
+  </si>
+  <si>
+    <t>Target_condition</t>
   </si>
 </sst>
 </file>
@@ -987,106 +987,106 @@
   </cellStyleXfs>
   <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1429,7 +1429,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B83" sqref="B83"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1482,61 +1482,61 @@
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="N1" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="V1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="L1" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="V1" s="5" t="s">
+      <c r="W1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="W1" s="6" t="s">
-        <v>20</v>
-      </c>
       <c r="X1" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="Y1" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="Y1" s="6" t="s">
+      <c r="Z1" s="6" t="s">
         <v>225</v>
-      </c>
-      <c r="Z1" s="6" t="s">
-        <v>226</v>
       </c>
       <c r="AA1" s="6"/>
     </row>
@@ -1551,22 +1551,22 @@
         <v>0</v>
       </c>
       <c r="D2" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="9" t="s">
         <v>37</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>38</v>
       </c>
       <c r="F2" s="9">
         <v>2012</v>
       </c>
       <c r="G2" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="I2" s="9" t="s">
         <v>40</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>41</v>
       </c>
       <c r="J2" s="9">
         <v>600</v>
@@ -1584,14 +1584,14 @@
         <v>1</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P2" s="9">
         <v>9</v>
       </c>
       <c r="Q2" s="9"/>
       <c r="R2" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="S2" s="9"/>
       <c r="T2" s="9"/>
@@ -1600,7 +1600,7 @@
       </c>
       <c r="V2" s="11"/>
       <c r="X2" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:27" ht="42" x14ac:dyDescent="0.25">
@@ -1614,22 +1614,22 @@
         <v>0</v>
       </c>
       <c r="D3" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="15" t="s">
         <v>37</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>38</v>
       </c>
       <c r="F3" s="15">
         <v>2012</v>
       </c>
       <c r="G3" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="H3" s="15" t="s">
+      <c r="I3" s="15" t="s">
         <v>40</v>
-      </c>
-      <c r="I3" s="15" t="s">
-        <v>41</v>
       </c>
       <c r="J3" s="15">
         <v>600</v>
@@ -1647,14 +1647,14 @@
         <v>1</v>
       </c>
       <c r="O3" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P3" s="15">
         <v>9</v>
       </c>
       <c r="Q3" s="15"/>
       <c r="R3" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="S3" s="15"/>
       <c r="T3" s="15"/>
@@ -1663,7 +1663,7 @@
       </c>
       <c r="V3" s="11"/>
       <c r="X3" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:27" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1677,22 +1677,22 @@
         <v>0</v>
       </c>
       <c r="D4" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="18" t="s">
         <v>37</v>
-      </c>
-      <c r="E4" s="18" t="s">
-        <v>38</v>
       </c>
       <c r="F4" s="18">
         <v>2012</v>
       </c>
       <c r="G4" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="H4" s="18" t="s">
+      <c r="I4" s="9" t="s">
         <v>40</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>41</v>
       </c>
       <c r="J4" s="18">
         <v>600</v>
@@ -1710,14 +1710,14 @@
         <v>1</v>
       </c>
       <c r="O4" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P4" s="18">
         <v>2</v>
       </c>
       <c r="Q4" s="18"/>
       <c r="R4" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="S4" s="18"/>
       <c r="T4" s="18"/>
@@ -1726,7 +1726,7 @@
       </c>
       <c r="V4" s="11"/>
       <c r="X4" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:27" ht="42" customHeight="1" x14ac:dyDescent="0.25">
@@ -1740,22 +1740,22 @@
         <v>1</v>
       </c>
       <c r="D5" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="15" t="s">
         <v>37</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>38</v>
       </c>
       <c r="F5" s="15">
         <v>2012</v>
       </c>
       <c r="G5" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="H5" s="15" t="s">
+      <c r="I5" s="15" t="s">
         <v>40</v>
-      </c>
-      <c r="I5" s="15" t="s">
-        <v>41</v>
       </c>
       <c r="J5" s="15">
         <v>432</v>
@@ -1769,14 +1769,14 @@
       </c>
       <c r="N5" s="15"/>
       <c r="O5" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P5" s="15">
         <v>9</v>
       </c>
       <c r="Q5" s="15"/>
       <c r="R5" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="S5" s="15"/>
       <c r="T5" s="15"/>
@@ -1785,7 +1785,7 @@
       </c>
       <c r="V5" s="11"/>
       <c r="X5" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:27" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1799,22 +1799,22 @@
         <v>1</v>
       </c>
       <c r="D6" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="9" t="s">
         <v>37</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>38</v>
       </c>
       <c r="F6" s="9">
         <v>2012</v>
       </c>
       <c r="G6" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="I6" s="9" t="s">
         <v>40</v>
-      </c>
-      <c r="I6" s="9" t="s">
-        <v>41</v>
       </c>
       <c r="J6" s="9">
         <v>432</v>
@@ -1828,14 +1828,14 @@
       </c>
       <c r="N6" s="9"/>
       <c r="O6" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P6" s="9">
         <v>9</v>
       </c>
       <c r="Q6" s="9"/>
       <c r="R6" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="S6" s="9"/>
       <c r="T6" s="9"/>
@@ -1844,7 +1844,7 @@
       </c>
       <c r="V6" s="11"/>
       <c r="X6" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:27" ht="42" customHeight="1" x14ac:dyDescent="0.25">
@@ -1858,22 +1858,22 @@
         <v>1</v>
       </c>
       <c r="D7" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="20" t="s">
         <v>37</v>
-      </c>
-      <c r="E7" s="20" t="s">
-        <v>38</v>
       </c>
       <c r="F7" s="20">
         <v>2012</v>
       </c>
       <c r="G7" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="H7" s="20" t="s">
+      <c r="I7" s="15" t="s">
         <v>40</v>
-      </c>
-      <c r="I7" s="15" t="s">
-        <v>41</v>
       </c>
       <c r="J7" s="20">
         <v>432</v>
@@ -1887,14 +1887,14 @@
       </c>
       <c r="N7" s="20"/>
       <c r="O7" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P7" s="20">
         <v>2</v>
       </c>
       <c r="Q7" s="20"/>
       <c r="R7" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="S7" s="20"/>
       <c r="T7" s="20"/>
@@ -1903,7 +1903,7 @@
       </c>
       <c r="V7" s="11"/>
       <c r="X7" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:27" s="40" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1917,22 +1917,22 @@
         <v>0</v>
       </c>
       <c r="D8" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="36" t="s">
         <v>51</v>
-      </c>
-      <c r="E8" s="36" t="s">
-        <v>52</v>
       </c>
       <c r="F8" s="36">
         <v>2006</v>
       </c>
       <c r="G8" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="H8" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="I8" s="36" t="s">
         <v>53</v>
-      </c>
-      <c r="H8" s="36" t="s">
-        <v>40</v>
-      </c>
-      <c r="I8" s="36" t="s">
-        <v>54</v>
       </c>
       <c r="J8" s="36">
         <v>1774</v>
@@ -1950,26 +1950,26 @@
         <v>1</v>
       </c>
       <c r="O8" s="36" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P8" s="36">
         <v>3</v>
       </c>
       <c r="Q8" s="36" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="R8" s="36"/>
       <c r="S8" s="36" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T8" s="36"/>
       <c r="U8" s="36" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="V8" s="38"/>
       <c r="W8" s="39"/>
       <c r="X8" s="39" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Y8" s="39"/>
       <c r="Z8" s="39"/>
@@ -1986,22 +1986,22 @@
         <v>0</v>
       </c>
       <c r="D9" s="42" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="42" t="s">
         <v>51</v>
-      </c>
-      <c r="E9" s="42" t="s">
-        <v>52</v>
       </c>
       <c r="F9" s="42">
         <v>2006</v>
       </c>
       <c r="G9" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="H9" s="42" t="s">
+        <v>39</v>
+      </c>
+      <c r="I9" s="42" t="s">
         <v>53</v>
-      </c>
-      <c r="H9" s="42" t="s">
-        <v>40</v>
-      </c>
-      <c r="I9" s="42" t="s">
-        <v>54</v>
       </c>
       <c r="J9" s="42">
         <v>1222</v>
@@ -2019,26 +2019,26 @@
         <v>1</v>
       </c>
       <c r="O9" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P9" s="42">
         <v>3</v>
       </c>
       <c r="Q9" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="R9" s="42"/>
       <c r="S9" s="42" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T9" s="42"/>
       <c r="U9" s="42" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="V9" s="38"/>
       <c r="W9" s="39"/>
       <c r="X9" s="39" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Y9" s="39"/>
       <c r="Z9" s="39"/>
@@ -2055,22 +2055,22 @@
         <v>0</v>
       </c>
       <c r="D10" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="E10" s="9" t="s">
         <v>64</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>65</v>
       </c>
       <c r="F10" s="9">
         <v>2007</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I10" s="18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="J10" s="9">
         <v>315</v>
@@ -2088,7 +2088,7 @@
         <v>1</v>
       </c>
       <c r="O10" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P10" s="9">
         <v>4</v>
@@ -2098,7 +2098,7 @@
       </c>
       <c r="R10" s="9"/>
       <c r="S10" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="T10" s="9"/>
       <c r="U10" s="9">
@@ -2106,10 +2106,10 @@
       </c>
       <c r="V10" s="11"/>
       <c r="X10" s="12" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Y10" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:27" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2123,22 +2123,22 @@
         <v>0</v>
       </c>
       <c r="D11" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="E11" s="15" t="s">
         <v>64</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>65</v>
       </c>
       <c r="F11" s="15">
         <v>2007</v>
       </c>
       <c r="G11" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H11" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I11" s="20" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="J11" s="15">
         <v>342</v>
@@ -2156,7 +2156,7 @@
         <v>1</v>
       </c>
       <c r="O11" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P11" s="15">
         <v>3</v>
@@ -2166,7 +2166,7 @@
       </c>
       <c r="R11" s="15"/>
       <c r="S11" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="T11" s="15"/>
       <c r="U11" s="15">
@@ -2174,7 +2174,7 @@
       </c>
       <c r="V11" s="11"/>
       <c r="X11" s="12" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="12" spans="1:27" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2188,22 +2188,22 @@
         <v>0</v>
       </c>
       <c r="D12" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="E12" s="24" t="s">
         <v>64</v>
-      </c>
-      <c r="E12" s="24" t="s">
-        <v>65</v>
       </c>
       <c r="F12" s="24">
         <v>2007</v>
       </c>
       <c r="G12" s="24" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H12" s="24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I12" s="18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="J12" s="24">
         <v>338</v>
@@ -2221,7 +2221,7 @@
         <v>1</v>
       </c>
       <c r="O12" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P12" s="24">
         <v>3</v>
@@ -2231,7 +2231,7 @@
       </c>
       <c r="R12" s="18"/>
       <c r="S12" s="24" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T12" s="24"/>
       <c r="U12" s="24">
@@ -2239,7 +2239,7 @@
       </c>
       <c r="V12" s="25"/>
       <c r="X12" s="12" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="13" spans="1:27" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2253,22 +2253,22 @@
         <v>0</v>
       </c>
       <c r="D13" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="E13" s="27" t="s">
         <v>64</v>
-      </c>
-      <c r="E13" s="27" t="s">
-        <v>65</v>
       </c>
       <c r="F13" s="27">
         <v>2007</v>
       </c>
       <c r="G13" s="27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H13" s="27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I13" s="20" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="J13" s="27">
         <v>338</v>
@@ -2286,7 +2286,7 @@
         <v>1</v>
       </c>
       <c r="O13" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P13" s="27">
         <v>3</v>
@@ -2296,7 +2296,7 @@
       </c>
       <c r="R13" s="20"/>
       <c r="S13" s="27" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T13" s="27"/>
       <c r="U13" s="27">
@@ -2304,7 +2304,7 @@
       </c>
       <c r="V13" s="25"/>
       <c r="X13" s="12" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="14" spans="1:27" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2318,22 +2318,22 @@
         <v>0</v>
       </c>
       <c r="D14" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="E14" s="24" t="s">
         <v>64</v>
-      </c>
-      <c r="E14" s="24" t="s">
-        <v>65</v>
       </c>
       <c r="F14" s="24">
         <v>2007</v>
       </c>
       <c r="G14" s="24" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H14" s="24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I14" s="18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="J14" s="24">
         <v>384</v>
@@ -2351,7 +2351,7 @@
         <v>1</v>
       </c>
       <c r="O14" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P14" s="24">
         <v>3</v>
@@ -2361,7 +2361,7 @@
       </c>
       <c r="R14" s="18"/>
       <c r="S14" s="24" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="T14" s="24"/>
       <c r="U14" s="24">
@@ -2369,7 +2369,7 @@
       </c>
       <c r="V14" s="25"/>
       <c r="X14" s="12" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:27" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2383,22 +2383,22 @@
         <v>0</v>
       </c>
       <c r="D15" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="E15" s="27" t="s">
         <v>64</v>
-      </c>
-      <c r="E15" s="27" t="s">
-        <v>65</v>
       </c>
       <c r="F15" s="27">
         <v>2007</v>
       </c>
       <c r="G15" s="27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H15" s="27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I15" s="20" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="J15" s="27">
         <v>384</v>
@@ -2416,7 +2416,7 @@
         <v>1</v>
       </c>
       <c r="O15" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P15" s="27">
         <v>3</v>
@@ -2426,7 +2426,7 @@
       </c>
       <c r="R15" s="20"/>
       <c r="S15" s="27" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="T15" s="27"/>
       <c r="U15" s="27">
@@ -2434,7 +2434,7 @@
       </c>
       <c r="V15" s="25"/>
       <c r="X15" s="12" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="16" spans="1:27" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2448,22 +2448,22 @@
         <v>0</v>
       </c>
       <c r="D16" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="E16" s="24" t="s">
         <v>64</v>
-      </c>
-      <c r="E16" s="24" t="s">
-        <v>65</v>
       </c>
       <c r="F16" s="24">
         <v>2007</v>
       </c>
       <c r="G16" s="24" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H16" s="24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I16" s="18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="J16" s="24">
         <v>394</v>
@@ -2481,7 +2481,7 @@
         <v>1</v>
       </c>
       <c r="O16" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P16" s="24">
         <v>4</v>
@@ -2491,7 +2491,7 @@
       </c>
       <c r="R16" s="18"/>
       <c r="S16" s="24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="T16" s="24"/>
       <c r="U16" s="24">
@@ -2499,7 +2499,7 @@
       </c>
       <c r="V16" s="25"/>
       <c r="X16" s="12" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="17" spans="1:27" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2513,22 +2513,22 @@
         <v>0</v>
       </c>
       <c r="D17" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="E17" s="27" t="s">
         <v>64</v>
-      </c>
-      <c r="E17" s="27" t="s">
-        <v>65</v>
       </c>
       <c r="F17" s="27">
         <v>2007</v>
       </c>
       <c r="G17" s="27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H17" s="27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I17" s="18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="J17" s="27">
         <v>390</v>
@@ -2546,7 +2546,7 @@
         <v>1</v>
       </c>
       <c r="O17" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P17" s="27">
         <v>4</v>
@@ -2556,7 +2556,7 @@
       </c>
       <c r="R17" s="15"/>
       <c r="S17" s="27" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="T17" s="27"/>
       <c r="U17" s="27">
@@ -2564,7 +2564,7 @@
       </c>
       <c r="V17" s="25"/>
       <c r="X17" s="12" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="18" spans="1:27" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2578,22 +2578,22 @@
         <v>0</v>
       </c>
       <c r="D18" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="E18" s="27" t="s">
         <v>64</v>
-      </c>
-      <c r="E18" s="27" t="s">
-        <v>65</v>
       </c>
       <c r="F18" s="27">
         <v>2007</v>
       </c>
       <c r="G18" s="27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H18" s="27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I18" s="18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="J18" s="27">
         <v>347</v>
@@ -2611,7 +2611,7 @@
         <v>1</v>
       </c>
       <c r="O18" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P18" s="27">
         <v>3</v>
@@ -2621,7 +2621,7 @@
       </c>
       <c r="R18" s="20"/>
       <c r="S18" s="27" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="T18" s="27"/>
       <c r="U18" s="27">
@@ -2629,7 +2629,7 @@
       </c>
       <c r="V18" s="25"/>
       <c r="X18" s="12" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="19" spans="1:27" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2643,22 +2643,22 @@
         <v>0</v>
       </c>
       <c r="D19" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="E19" s="27" t="s">
         <v>64</v>
-      </c>
-      <c r="E19" s="27" t="s">
-        <v>65</v>
       </c>
       <c r="F19" s="27">
         <v>2007</v>
       </c>
       <c r="G19" s="27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H19" s="27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I19" s="18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="J19" s="27">
         <v>244</v>
@@ -2676,7 +2676,7 @@
         <v>1</v>
       </c>
       <c r="O19" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P19" s="27">
         <v>9</v>
@@ -2686,7 +2686,7 @@
       </c>
       <c r="R19" s="20"/>
       <c r="S19" s="27" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="T19" s="27"/>
       <c r="U19" s="27">
@@ -2694,7 +2694,7 @@
       </c>
       <c r="V19" s="25"/>
       <c r="X19" s="12" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="20" spans="1:27" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2708,22 +2708,22 @@
         <v>1</v>
       </c>
       <c r="D20" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="E20" s="27" t="s">
         <v>64</v>
-      </c>
-      <c r="E20" s="27" t="s">
-        <v>65</v>
       </c>
       <c r="F20" s="27">
         <v>2007</v>
       </c>
       <c r="G20" s="27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H20" s="27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I20" s="18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="J20" s="27">
         <v>245</v>
@@ -2741,7 +2741,7 @@
         <v>1</v>
       </c>
       <c r="O20" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P20" s="27">
         <v>4</v>
@@ -2751,7 +2751,7 @@
       </c>
       <c r="R20" s="20"/>
       <c r="S20" s="27" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="T20" s="27"/>
       <c r="U20" s="27">
@@ -2759,7 +2759,7 @@
       </c>
       <c r="V20" s="25"/>
       <c r="X20" s="12" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="21" spans="1:27" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2773,22 +2773,22 @@
         <v>1</v>
       </c>
       <c r="D21" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="E21" s="27" t="s">
         <v>64</v>
-      </c>
-      <c r="E21" s="27" t="s">
-        <v>65</v>
       </c>
       <c r="F21" s="27">
         <v>2007</v>
       </c>
       <c r="G21" s="27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H21" s="27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I21" s="18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="J21" s="27">
         <v>270</v>
@@ -2806,7 +2806,7 @@
         <v>1</v>
       </c>
       <c r="O21" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P21" s="27">
         <v>3</v>
@@ -2816,7 +2816,7 @@
       </c>
       <c r="R21" s="20"/>
       <c r="S21" s="27" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="T21" s="27"/>
       <c r="U21" s="27">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="V21" s="25"/>
       <c r="X21" s="12" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="22" spans="1:27" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2838,22 +2838,22 @@
         <v>1</v>
       </c>
       <c r="D22" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="E22" s="27" t="s">
         <v>64</v>
-      </c>
-      <c r="E22" s="27" t="s">
-        <v>65</v>
       </c>
       <c r="F22" s="27">
         <v>2007</v>
       </c>
       <c r="G22" s="27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H22" s="27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I22" s="18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="J22" s="27">
         <v>266</v>
@@ -2871,7 +2871,7 @@
         <v>1</v>
       </c>
       <c r="O22" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P22" s="27">
         <v>3</v>
@@ -2881,7 +2881,7 @@
       </c>
       <c r="R22" s="20"/>
       <c r="S22" s="27" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="T22" s="27"/>
       <c r="U22" s="27">
@@ -2889,7 +2889,7 @@
       </c>
       <c r="V22" s="25"/>
       <c r="X22" s="12" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="23" spans="1:27" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2903,22 +2903,22 @@
         <v>1</v>
       </c>
       <c r="D23" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="E23" s="27" t="s">
         <v>64</v>
-      </c>
-      <c r="E23" s="27" t="s">
-        <v>65</v>
       </c>
       <c r="F23" s="27">
         <v>2007</v>
       </c>
       <c r="G23" s="27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H23" s="27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I23" s="18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="J23" s="27">
         <v>266</v>
@@ -2936,7 +2936,7 @@
         <v>1</v>
       </c>
       <c r="O23" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P23" s="27">
         <v>3</v>
@@ -2946,7 +2946,7 @@
       </c>
       <c r="R23" s="20"/>
       <c r="S23" s="27" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="T23" s="27"/>
       <c r="U23" s="27">
@@ -2954,7 +2954,7 @@
       </c>
       <c r="V23" s="25"/>
       <c r="X23" s="12" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="24" spans="1:27" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2968,22 +2968,22 @@
         <v>1</v>
       </c>
       <c r="D24" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="E24" s="27" t="s">
         <v>64</v>
-      </c>
-      <c r="E24" s="27" t="s">
-        <v>65</v>
       </c>
       <c r="F24" s="27">
         <v>2007</v>
       </c>
       <c r="G24" s="27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H24" s="27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I24" s="18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="J24" s="27">
         <v>308</v>
@@ -3001,7 +3001,7 @@
         <v>1</v>
       </c>
       <c r="O24" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P24" s="27">
         <v>3</v>
@@ -3011,7 +3011,7 @@
       </c>
       <c r="R24" s="20"/>
       <c r="S24" s="27" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="T24" s="27"/>
       <c r="U24" s="27">
@@ -3019,7 +3019,7 @@
       </c>
       <c r="V24" s="25"/>
       <c r="X24" s="12" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="25" spans="1:27" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3033,22 +3033,22 @@
         <v>1</v>
       </c>
       <c r="D25" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="E25" s="27" t="s">
         <v>64</v>
-      </c>
-      <c r="E25" s="27" t="s">
-        <v>65</v>
       </c>
       <c r="F25" s="27">
         <v>2007</v>
       </c>
       <c r="G25" s="27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H25" s="27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I25" s="18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="J25" s="27">
         <v>308</v>
@@ -3066,7 +3066,7 @@
         <v>1</v>
       </c>
       <c r="O25" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P25" s="27">
         <v>3</v>
@@ -3076,7 +3076,7 @@
       </c>
       <c r="R25" s="20"/>
       <c r="S25" s="27" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="T25" s="27"/>
       <c r="U25" s="27">
@@ -3084,7 +3084,7 @@
       </c>
       <c r="V25" s="25"/>
       <c r="X25" s="12" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="26" spans="1:27" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3098,22 +3098,22 @@
         <v>1</v>
       </c>
       <c r="D26" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="E26" s="27" t="s">
         <v>64</v>
-      </c>
-      <c r="E26" s="27" t="s">
-        <v>65</v>
       </c>
       <c r="F26" s="27">
         <v>2007</v>
       </c>
       <c r="G26" s="27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H26" s="27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I26" s="18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="J26" s="27">
         <v>317</v>
@@ -3131,7 +3131,7 @@
         <v>1</v>
       </c>
       <c r="O26" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P26" s="27">
         <v>4</v>
@@ -3141,7 +3141,7 @@
       </c>
       <c r="R26" s="20"/>
       <c r="S26" s="27" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="T26" s="27"/>
       <c r="U26" s="27">
@@ -3149,7 +3149,7 @@
       </c>
       <c r="V26" s="25"/>
       <c r="X26" s="12" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="27" spans="1:27" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3163,22 +3163,22 @@
         <v>1</v>
       </c>
       <c r="D27" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="E27" s="27" t="s">
         <v>64</v>
-      </c>
-      <c r="E27" s="27" t="s">
-        <v>65</v>
       </c>
       <c r="F27" s="27">
         <v>2007</v>
       </c>
       <c r="G27" s="27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H27" s="27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I27" s="18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="J27" s="27">
         <v>313</v>
@@ -3196,7 +3196,7 @@
         <v>1</v>
       </c>
       <c r="O27" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P27" s="27">
         <v>4</v>
@@ -3206,7 +3206,7 @@
       </c>
       <c r="R27" s="20"/>
       <c r="S27" s="27" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="T27" s="27"/>
       <c r="U27" s="27">
@@ -3214,7 +3214,7 @@
       </c>
       <c r="V27" s="25"/>
       <c r="X27" s="12" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="28" spans="1:27" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3228,22 +3228,22 @@
         <v>1</v>
       </c>
       <c r="D28" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="E28" s="27" t="s">
         <v>64</v>
-      </c>
-      <c r="E28" s="27" t="s">
-        <v>65</v>
       </c>
       <c r="F28" s="27">
         <v>2007</v>
       </c>
       <c r="G28" s="27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H28" s="27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I28" s="18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="J28" s="27">
         <v>278</v>
@@ -3261,7 +3261,7 @@
         <v>1</v>
       </c>
       <c r="O28" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P28" s="15">
         <v>3</v>
@@ -3271,7 +3271,7 @@
       </c>
       <c r="R28" s="20"/>
       <c r="S28" s="27" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="T28" s="27"/>
       <c r="U28" s="27">
@@ -3279,7 +3279,7 @@
       </c>
       <c r="V28" s="25"/>
       <c r="X28" s="12" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="29" spans="1:27" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3293,22 +3293,22 @@
         <v>1</v>
       </c>
       <c r="D29" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="E29" s="27" t="s">
         <v>64</v>
-      </c>
-      <c r="E29" s="27" t="s">
-        <v>65</v>
       </c>
       <c r="F29" s="27">
         <v>2007</v>
       </c>
       <c r="G29" s="27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H29" s="27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I29" s="18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="J29" s="27">
         <v>191</v>
@@ -3326,7 +3326,7 @@
         <v>1</v>
       </c>
       <c r="O29" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P29" s="15">
         <v>9</v>
@@ -3336,7 +3336,7 @@
       </c>
       <c r="R29" s="20"/>
       <c r="S29" s="27" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T29" s="27"/>
       <c r="U29" s="27">
@@ -3344,7 +3344,7 @@
       </c>
       <c r="V29" s="25"/>
       <c r="X29" s="12" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="30" spans="1:27" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3358,22 +3358,22 @@
         <v>2</v>
       </c>
       <c r="D30" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="E30" s="27" t="s">
         <v>64</v>
-      </c>
-      <c r="E30" s="27" t="s">
-        <v>65</v>
       </c>
       <c r="F30" s="27">
         <v>2007</v>
       </c>
       <c r="G30" s="27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H30" s="27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I30" s="18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J30" s="27">
         <v>245</v>
@@ -3391,7 +3391,7 @@
         <v>1</v>
       </c>
       <c r="O30" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P30" s="27">
         <v>3</v>
@@ -3401,7 +3401,7 @@
       </c>
       <c r="R30" s="20"/>
       <c r="S30" s="27" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="T30" s="27"/>
       <c r="U30" s="27">
@@ -3409,7 +3409,7 @@
       </c>
       <c r="V30" s="25"/>
       <c r="X30" s="12" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="31" spans="1:27" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3423,22 +3423,22 @@
         <v>2</v>
       </c>
       <c r="D31" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="E31" s="27" t="s">
         <v>64</v>
-      </c>
-      <c r="E31" s="27" t="s">
-        <v>65</v>
       </c>
       <c r="F31" s="27">
         <v>2007</v>
       </c>
       <c r="G31" s="27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H31" s="27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I31" s="18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J31" s="27">
         <v>255</v>
@@ -3456,7 +3456,7 @@
         <v>1</v>
       </c>
       <c r="O31" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P31" s="27">
         <v>3</v>
@@ -3466,7 +3466,7 @@
       </c>
       <c r="R31" s="20"/>
       <c r="S31" s="27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="T31" s="27"/>
       <c r="U31" s="27">
@@ -3474,7 +3474,7 @@
       </c>
       <c r="V31" s="25"/>
       <c r="X31" s="12" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="32" spans="1:27" s="40" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3488,22 +3488,22 @@
         <v>0</v>
       </c>
       <c r="D32" s="42" t="s">
+        <v>89</v>
+      </c>
+      <c r="E32" s="42" t="s">
         <v>90</v>
-      </c>
-      <c r="E32" s="42" t="s">
-        <v>91</v>
       </c>
       <c r="F32" s="42">
         <v>2011</v>
       </c>
       <c r="G32" s="42" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H32" s="42" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I32" s="36" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J32" s="42">
         <v>1078</v>
@@ -3521,7 +3521,7 @@
         <v>1</v>
       </c>
       <c r="O32" s="36" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P32" s="42">
         <v>9</v>
@@ -3530,7 +3530,7 @@
         <v>1.1399999999999999</v>
       </c>
       <c r="R32" s="42" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S32" s="42"/>
       <c r="T32" s="42"/>
@@ -3540,7 +3540,7 @@
       <c r="V32" s="38"/>
       <c r="W32" s="39"/>
       <c r="X32" s="39" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Y32" s="39"/>
       <c r="Z32" s="39"/>
@@ -3557,22 +3557,22 @@
         <v>0</v>
       </c>
       <c r="D33" s="42" t="s">
+        <v>89</v>
+      </c>
+      <c r="E33" s="42" t="s">
         <v>90</v>
-      </c>
-      <c r="E33" s="42" t="s">
-        <v>91</v>
       </c>
       <c r="F33" s="42">
         <v>2011</v>
       </c>
       <c r="G33" s="42" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H33" s="42" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I33" s="36" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J33" s="42">
         <v>957</v>
@@ -3586,7 +3586,7 @@
       </c>
       <c r="N33" s="42"/>
       <c r="O33" s="42" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P33" s="42">
         <v>9</v>
@@ -3595,7 +3595,7 @@
         <v>0.98</v>
       </c>
       <c r="R33" s="42" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="S33" s="42"/>
       <c r="T33" s="42"/>
@@ -3620,22 +3620,22 @@
         <v>0</v>
       </c>
       <c r="D34" s="42" t="s">
+        <v>89</v>
+      </c>
+      <c r="E34" s="42" t="s">
         <v>90</v>
-      </c>
-      <c r="E34" s="42" t="s">
-        <v>91</v>
       </c>
       <c r="F34" s="42">
         <v>2011</v>
       </c>
       <c r="G34" s="42" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H34" s="42" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I34" s="36" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J34" s="42">
         <v>945</v>
@@ -3649,7 +3649,7 @@
       </c>
       <c r="N34" s="42"/>
       <c r="O34" s="36" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P34" s="36">
         <v>9</v>
@@ -3658,7 +3658,7 @@
         <v>1.41</v>
       </c>
       <c r="R34" s="42" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="S34" s="42"/>
       <c r="T34" s="42"/>
@@ -3683,22 +3683,22 @@
         <v>0</v>
       </c>
       <c r="D35" s="42" t="s">
+        <v>89</v>
+      </c>
+      <c r="E35" s="42" t="s">
         <v>90</v>
-      </c>
-      <c r="E35" s="42" t="s">
-        <v>91</v>
       </c>
       <c r="F35" s="42">
         <v>2011</v>
       </c>
       <c r="G35" s="42" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H35" s="42" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I35" s="36" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J35" s="42">
         <v>667</v>
@@ -3716,7 +3716,7 @@
         <v>1</v>
       </c>
       <c r="O35" s="42" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P35" s="42">
         <v>4</v>
@@ -3725,7 +3725,7 @@
         <v>1.37</v>
       </c>
       <c r="R35" s="42" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="S35" s="42"/>
       <c r="T35" s="42"/>
@@ -3750,22 +3750,22 @@
         <v>0</v>
       </c>
       <c r="D36" s="42" t="s">
+        <v>89</v>
+      </c>
+      <c r="E36" s="42" t="s">
         <v>90</v>
-      </c>
-      <c r="E36" s="42" t="s">
-        <v>91</v>
       </c>
       <c r="F36" s="42">
         <v>2011</v>
       </c>
       <c r="G36" s="42" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H36" s="42" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I36" s="42" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J36" s="42">
         <v>667</v>
@@ -3783,7 +3783,7 @@
         <v>1</v>
       </c>
       <c r="O36" s="36" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="P36" s="42">
         <v>3</v>
@@ -3792,7 +3792,7 @@
         <v>0.74</v>
       </c>
       <c r="R36" s="42" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="S36" s="42"/>
       <c r="T36" s="42"/>
@@ -3817,22 +3817,22 @@
         <v>0</v>
       </c>
       <c r="D37" s="42" t="s">
+        <v>89</v>
+      </c>
+      <c r="E37" s="42" t="s">
         <v>90</v>
-      </c>
-      <c r="E37" s="42" t="s">
-        <v>91</v>
       </c>
       <c r="F37" s="42">
         <v>2011</v>
       </c>
       <c r="G37" s="42" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H37" s="42" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I37" s="42" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J37" s="42">
         <v>1075</v>
@@ -3850,7 +3850,7 @@
         <v>1</v>
       </c>
       <c r="O37" s="42" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P37" s="42">
         <v>9</v>
@@ -3859,7 +3859,7 @@
         <v>1.3</v>
       </c>
       <c r="R37" s="42" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="S37" s="42"/>
       <c r="T37" s="42"/>
@@ -3884,22 +3884,22 @@
         <v>0</v>
       </c>
       <c r="D38" s="36" t="s">
+        <v>89</v>
+      </c>
+      <c r="E38" s="36" t="s">
         <v>90</v>
-      </c>
-      <c r="E38" s="36" t="s">
-        <v>91</v>
       </c>
       <c r="F38" s="36">
         <v>2011</v>
       </c>
       <c r="G38" s="36" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H38" s="36" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I38" s="36" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J38" s="36">
         <v>957</v>
@@ -3913,7 +3913,7 @@
       </c>
       <c r="N38" s="36"/>
       <c r="O38" s="36" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P38" s="36">
         <v>9</v>
@@ -3922,7 +3922,7 @@
         <v>1.1200000000000001</v>
       </c>
       <c r="R38" s="36" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="S38" s="36"/>
       <c r="T38" s="36"/>
@@ -3947,22 +3947,22 @@
         <v>0</v>
       </c>
       <c r="D39" s="42" t="s">
+        <v>89</v>
+      </c>
+      <c r="E39" s="42" t="s">
         <v>90</v>
-      </c>
-      <c r="E39" s="42" t="s">
-        <v>91</v>
       </c>
       <c r="F39" s="42">
         <v>2011</v>
       </c>
       <c r="G39" s="42" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H39" s="42" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I39" s="42" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J39" s="42">
         <v>945</v>
@@ -3976,7 +3976,7 @@
       </c>
       <c r="N39" s="42"/>
       <c r="O39" s="42" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P39" s="42">
         <v>9</v>
@@ -3985,7 +3985,7 @@
         <v>1.75</v>
       </c>
       <c r="R39" s="42" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="S39" s="42"/>
       <c r="T39" s="42"/>
@@ -4010,22 +4010,22 @@
         <v>0</v>
       </c>
       <c r="D40" s="36" t="s">
+        <v>89</v>
+      </c>
+      <c r="E40" s="36" t="s">
         <v>90</v>
-      </c>
-      <c r="E40" s="36" t="s">
-        <v>91</v>
       </c>
       <c r="F40" s="36">
         <v>2011</v>
       </c>
       <c r="G40" s="36" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H40" s="36" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I40" s="36" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J40" s="36">
         <v>667</v>
@@ -4043,7 +4043,7 @@
         <v>1</v>
       </c>
       <c r="O40" s="36" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="P40" s="36">
         <v>3</v>
@@ -4052,7 +4052,7 @@
         <v>3.91</v>
       </c>
       <c r="R40" s="36" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="S40" s="36"/>
       <c r="T40" s="36"/>
@@ -4077,22 +4077,22 @@
         <v>0</v>
       </c>
       <c r="D41" s="42" t="s">
+        <v>89</v>
+      </c>
+      <c r="E41" s="42" t="s">
         <v>90</v>
-      </c>
-      <c r="E41" s="42" t="s">
-        <v>91</v>
       </c>
       <c r="F41" s="42">
         <v>2011</v>
       </c>
       <c r="G41" s="42" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H41" s="42" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I41" s="42" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J41" s="42">
         <v>1072</v>
@@ -4110,7 +4110,7 @@
         <v>1</v>
       </c>
       <c r="O41" s="42" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P41" s="42">
         <v>2</v>
@@ -4144,22 +4144,22 @@
         <v>0</v>
       </c>
       <c r="D42" s="36" t="s">
+        <v>89</v>
+      </c>
+      <c r="E42" s="36" t="s">
         <v>90</v>
-      </c>
-      <c r="E42" s="36" t="s">
-        <v>91</v>
       </c>
       <c r="F42" s="36">
         <v>2011</v>
       </c>
       <c r="G42" s="36" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H42" s="36" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I42" s="36" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J42" s="36">
         <v>833</v>
@@ -4173,7 +4173,7 @@
       </c>
       <c r="N42" s="36"/>
       <c r="O42" s="36" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P42" s="36">
         <v>2</v>
@@ -4207,22 +4207,22 @@
         <v>0</v>
       </c>
       <c r="D43" s="42" t="s">
+        <v>89</v>
+      </c>
+      <c r="E43" s="42" t="s">
         <v>90</v>
-      </c>
-      <c r="E43" s="42" t="s">
-        <v>91</v>
       </c>
       <c r="F43" s="42">
         <v>2011</v>
       </c>
       <c r="G43" s="42" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H43" s="42" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I43" s="42" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J43" s="42">
         <v>833</v>
@@ -4236,7 +4236,7 @@
       </c>
       <c r="N43" s="42"/>
       <c r="O43" s="42" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P43" s="42">
         <v>2</v>
@@ -4270,22 +4270,22 @@
         <v>0</v>
       </c>
       <c r="D44" s="36" t="s">
+        <v>89</v>
+      </c>
+      <c r="E44" s="36" t="s">
         <v>90</v>
-      </c>
-      <c r="E44" s="36" t="s">
-        <v>91</v>
       </c>
       <c r="F44" s="36">
         <v>2011</v>
       </c>
       <c r="G44" s="36" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H44" s="36" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I44" s="36" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J44" s="36">
         <v>928</v>
@@ -4303,7 +4303,7 @@
         <v>1</v>
       </c>
       <c r="O44" s="36" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="P44" s="36">
         <v>3</v>
@@ -4312,7 +4312,7 @@
         <v>1.43</v>
       </c>
       <c r="R44" s="36" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="S44" s="36"/>
       <c r="T44" s="36"/>
@@ -4337,22 +4337,22 @@
         <v>0</v>
       </c>
       <c r="D45" s="42" t="s">
+        <v>89</v>
+      </c>
+      <c r="E45" s="42" t="s">
         <v>90</v>
-      </c>
-      <c r="E45" s="42" t="s">
-        <v>91</v>
       </c>
       <c r="F45" s="42">
         <v>2011</v>
       </c>
       <c r="G45" s="42" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H45" s="42" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I45" s="42" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J45" s="42">
         <v>667</v>
@@ -4370,7 +4370,7 @@
         <v>1</v>
       </c>
       <c r="O45" s="42" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P45" s="42">
         <v>5</v>
@@ -4379,7 +4379,7 @@
         <v>1.38</v>
       </c>
       <c r="R45" s="42" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="S45" s="42"/>
       <c r="T45" s="42"/>
@@ -4404,22 +4404,22 @@
         <v>0</v>
       </c>
       <c r="D46" s="36" t="s">
+        <v>89</v>
+      </c>
+      <c r="E46" s="36" t="s">
         <v>90</v>
-      </c>
-      <c r="E46" s="36" t="s">
-        <v>91</v>
       </c>
       <c r="F46" s="36">
         <v>2011</v>
       </c>
       <c r="G46" s="36" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H46" s="36" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I46" s="36" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J46" s="36">
         <v>667</v>
@@ -4437,7 +4437,7 @@
         <v>1</v>
       </c>
       <c r="O46" s="36" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P46" s="36">
         <v>4</v>
@@ -4446,7 +4446,7 @@
         <v>0.91</v>
       </c>
       <c r="R46" s="36" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="S46" s="36"/>
       <c r="T46" s="36"/>
@@ -4471,22 +4471,22 @@
         <v>0</v>
       </c>
       <c r="D47" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="E47" s="20" t="s">
         <v>163</v>
-      </c>
-      <c r="E47" s="20" t="s">
-        <v>164</v>
       </c>
       <c r="F47" s="20">
         <v>2018</v>
       </c>
       <c r="G47" s="20" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H47" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="I47" s="15" t="s">
         <v>40</v>
-      </c>
-      <c r="I47" s="15" t="s">
-        <v>41</v>
       </c>
       <c r="J47" s="15">
         <v>251</v>
@@ -4504,21 +4504,21 @@
         <v>1</v>
       </c>
       <c r="O47" s="15" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="P47" s="15">
         <v>3</v>
       </c>
       <c r="Q47" s="15"/>
       <c r="R47" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="S47" s="15"/>
       <c r="T47" s="15"/>
       <c r="U47" s="15"/>
       <c r="V47" s="11"/>
       <c r="X47" s="12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="48" spans="1:27" ht="42" x14ac:dyDescent="0.25">
@@ -4532,22 +4532,22 @@
         <v>1</v>
       </c>
       <c r="D48" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="E48" s="18" t="s">
         <v>163</v>
-      </c>
-      <c r="E48" s="18" t="s">
-        <v>164</v>
       </c>
       <c r="F48" s="18">
         <v>2018</v>
       </c>
       <c r="G48" s="18" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H48" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I48" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J48" s="9">
         <v>71</v>
@@ -4561,14 +4561,14 @@
       </c>
       <c r="N48" s="9"/>
       <c r="O48" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="P48" s="9">
         <v>3</v>
       </c>
       <c r="Q48" s="9"/>
       <c r="R48" s="9" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="S48" s="9"/>
       <c r="T48" s="9"/>
@@ -4586,22 +4586,22 @@
         <v>0</v>
       </c>
       <c r="D49" s="42" t="s">
+        <v>123</v>
+      </c>
+      <c r="E49" s="42" t="s">
         <v>124</v>
-      </c>
-      <c r="E49" s="42" t="s">
-        <v>125</v>
       </c>
       <c r="F49" s="42">
         <v>2023</v>
       </c>
       <c r="G49" s="42" t="s">
+        <v>125</v>
+      </c>
+      <c r="H49" s="45" t="s">
         <v>126</v>
       </c>
-      <c r="H49" s="45" t="s">
-        <v>127</v>
-      </c>
       <c r="I49" s="42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J49" s="45">
         <v>434</v>
@@ -4619,14 +4619,14 @@
         <v>1</v>
       </c>
       <c r="O49" s="42" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="P49" s="46">
         <v>3</v>
       </c>
       <c r="Q49" s="46"/>
       <c r="R49" s="46" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="S49" s="46"/>
       <c r="T49" s="45"/>
@@ -4635,13 +4635,13 @@
       </c>
       <c r="V49" s="48"/>
       <c r="W49" s="39" t="s">
+        <v>129</v>
+      </c>
+      <c r="X49" s="39" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y49" s="39" t="s">
         <v>130</v>
-      </c>
-      <c r="X49" s="39" t="s">
-        <v>217</v>
-      </c>
-      <c r="Y49" s="39" t="s">
-        <v>131</v>
       </c>
       <c r="Z49" s="39"/>
       <c r="AA49" s="39"/>
@@ -4657,22 +4657,22 @@
         <v>1</v>
       </c>
       <c r="D50" s="36" t="s">
+        <v>123</v>
+      </c>
+      <c r="E50" s="36" t="s">
         <v>124</v>
-      </c>
-      <c r="E50" s="36" t="s">
-        <v>125</v>
       </c>
       <c r="F50" s="36">
         <v>2023</v>
       </c>
       <c r="G50" s="36" t="s">
+        <v>125</v>
+      </c>
+      <c r="H50" s="50" t="s">
         <v>126</v>
       </c>
-      <c r="H50" s="50" t="s">
-        <v>127</v>
-      </c>
       <c r="I50" s="36" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J50" s="50">
         <v>357</v>
@@ -4690,14 +4690,14 @@
         <v>1</v>
       </c>
       <c r="O50" s="36" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="P50" s="51">
         <v>3</v>
       </c>
       <c r="Q50" s="51"/>
       <c r="R50" s="51" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="S50" s="51"/>
       <c r="T50" s="50"/>
@@ -4707,10 +4707,10 @@
       <c r="V50" s="48"/>
       <c r="W50" s="39"/>
       <c r="X50" s="39" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="Y50" s="39" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Z50" s="39"/>
       <c r="AA50" s="39"/>
@@ -4726,22 +4726,22 @@
         <v>2</v>
       </c>
       <c r="D51" s="45" t="s">
+        <v>123</v>
+      </c>
+      <c r="E51" s="45" t="s">
         <v>124</v>
-      </c>
-      <c r="E51" s="45" t="s">
-        <v>125</v>
       </c>
       <c r="F51" s="45">
         <v>2023</v>
       </c>
       <c r="G51" s="45" t="s">
+        <v>125</v>
+      </c>
+      <c r="H51" s="45" t="s">
         <v>126</v>
       </c>
-      <c r="H51" s="45" t="s">
-        <v>127</v>
-      </c>
       <c r="I51" s="45" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J51" s="45">
         <v>203</v>
@@ -4759,14 +4759,14 @@
         <v>1</v>
       </c>
       <c r="O51" s="45" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="P51" s="46">
         <v>3</v>
       </c>
       <c r="Q51" s="46"/>
       <c r="R51" s="46" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="S51" s="46"/>
       <c r="T51" s="46"/>
@@ -4776,10 +4776,10 @@
       <c r="V51" s="48"/>
       <c r="W51" s="39"/>
       <c r="X51" s="39" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="Y51" s="39" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="Z51" s="39"/>
       <c r="AA51" s="39"/>
@@ -4795,22 +4795,22 @@
         <v>3</v>
       </c>
       <c r="D52" s="50" t="s">
+        <v>123</v>
+      </c>
+      <c r="E52" s="50" t="s">
         <v>124</v>
-      </c>
-      <c r="E52" s="50" t="s">
-        <v>125</v>
       </c>
       <c r="F52" s="50">
         <v>2023</v>
       </c>
       <c r="G52" s="50" t="s">
+        <v>125</v>
+      </c>
+      <c r="H52" s="50" t="s">
         <v>126</v>
       </c>
-      <c r="H52" s="50" t="s">
-        <v>127</v>
-      </c>
       <c r="I52" s="50" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J52" s="50">
         <v>308</v>
@@ -4828,14 +4828,14 @@
         <v>1</v>
       </c>
       <c r="O52" s="50" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="P52" s="51">
         <v>3</v>
       </c>
       <c r="Q52" s="51"/>
       <c r="R52" s="51" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="S52" s="51"/>
       <c r="T52" s="51"/>
@@ -4845,10 +4845,10 @@
       <c r="V52" s="48"/>
       <c r="W52" s="39"/>
       <c r="X52" s="39" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="Y52" s="39" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="Z52" s="39"/>
       <c r="AA52" s="39"/>
@@ -4864,22 +4864,22 @@
         <v>0</v>
       </c>
       <c r="D53" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="E53" s="20" t="s">
         <v>170</v>
-      </c>
-      <c r="E53" s="20" t="s">
-        <v>171</v>
       </c>
       <c r="F53" s="20">
         <v>2023</v>
       </c>
       <c r="G53" s="20" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H53" s="15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I53" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J53" s="15">
         <v>512</v>
@@ -4897,7 +4897,7 @@
         <v>1</v>
       </c>
       <c r="O53" s="27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P53" s="15">
         <v>7</v>
@@ -4906,18 +4906,18 @@
         <v>0.26</v>
       </c>
       <c r="R53" s="15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="S53" s="28"/>
       <c r="T53" s="15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="U53" s="15">
         <v>0.85</v>
       </c>
       <c r="V53" s="11"/>
       <c r="X53" s="12" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="54" spans="1:27" ht="70" x14ac:dyDescent="0.25">
@@ -4931,22 +4931,22 @@
         <v>0</v>
       </c>
       <c r="D54" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="E54" s="18" t="s">
         <v>170</v>
-      </c>
-      <c r="E54" s="18" t="s">
-        <v>171</v>
       </c>
       <c r="F54" s="18">
         <v>2023</v>
       </c>
       <c r="G54" s="18" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H54" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I54" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J54" s="29">
         <v>512</v>
@@ -4964,7 +4964,7 @@
         <v>1</v>
       </c>
       <c r="O54" s="24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P54" s="9">
         <v>3</v>
@@ -4973,18 +4973,18 @@
         <v>0.23</v>
       </c>
       <c r="R54" s="9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="S54" s="30"/>
       <c r="T54" s="9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="U54" s="9">
         <v>1.29</v>
       </c>
       <c r="V54" s="11"/>
       <c r="X54" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="55" spans="1:27" ht="70" x14ac:dyDescent="0.25">
@@ -4998,22 +4998,22 @@
         <v>0</v>
       </c>
       <c r="D55" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="E55" s="18" t="s">
         <v>170</v>
-      </c>
-      <c r="E55" s="18" t="s">
-        <v>171</v>
       </c>
       <c r="F55" s="18">
         <v>2023</v>
       </c>
       <c r="G55" s="18" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H55" s="24" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I55" s="27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J55" s="29">
         <v>512</v>
@@ -5031,7 +5031,7 @@
         <v>1</v>
       </c>
       <c r="O55" s="27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P55" s="30">
         <v>7</v>
@@ -5040,18 +5040,18 @@
         <v>0.48</v>
       </c>
       <c r="R55" s="30" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="S55" s="30"/>
       <c r="T55" s="30" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="U55" s="30">
         <v>0.56999999999999995</v>
       </c>
       <c r="V55" s="32"/>
       <c r="X55" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="56" spans="1:27" ht="70" x14ac:dyDescent="0.25">
@@ -5065,22 +5065,22 @@
         <v>0</v>
       </c>
       <c r="D56" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="E56" s="18" t="s">
         <v>170</v>
-      </c>
-      <c r="E56" s="18" t="s">
-        <v>171</v>
       </c>
       <c r="F56" s="18">
         <v>2023</v>
       </c>
       <c r="G56" s="18" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H56" s="24" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I56" s="24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J56" s="29">
         <v>512</v>
@@ -5098,7 +5098,7 @@
         <v>1</v>
       </c>
       <c r="O56" s="24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P56" s="30">
         <v>3</v>
@@ -5107,18 +5107,18 @@
         <v>0.23</v>
       </c>
       <c r="R56" s="30" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="S56" s="30"/>
       <c r="T56" s="30" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="U56" s="30">
         <v>1.3</v>
       </c>
       <c r="V56" s="32"/>
       <c r="X56" s="12" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="57" spans="1:27" ht="70" x14ac:dyDescent="0.25">
@@ -5132,22 +5132,22 @@
         <v>0</v>
       </c>
       <c r="D57" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="E57" s="18" t="s">
         <v>170</v>
-      </c>
-      <c r="E57" s="18" t="s">
-        <v>171</v>
       </c>
       <c r="F57" s="18">
         <v>2023</v>
       </c>
       <c r="G57" s="18" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H57" s="24" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I57" s="27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J57" s="30">
         <v>12705</v>
@@ -5165,7 +5165,7 @@
         <v>1</v>
       </c>
       <c r="O57" s="27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P57" s="30">
         <v>8</v>
@@ -5174,18 +5174,18 @@
         <v>0.31</v>
       </c>
       <c r="R57" s="30" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="S57" s="30"/>
       <c r="T57" s="30" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="U57" s="30">
         <v>1.25</v>
       </c>
       <c r="V57" s="32"/>
       <c r="X57" s="12" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="58" spans="1:27" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5199,22 +5199,22 @@
         <v>0</v>
       </c>
       <c r="D58" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="E58" s="18" t="s">
         <v>170</v>
-      </c>
-      <c r="E58" s="18" t="s">
-        <v>171</v>
       </c>
       <c r="F58" s="18">
         <v>2023</v>
       </c>
       <c r="G58" s="18" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H58" s="24" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I58" s="24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J58" s="30">
         <v>8144</v>
@@ -5232,7 +5232,7 @@
         <v>1</v>
       </c>
       <c r="O58" s="24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P58" s="30">
         <v>3</v>
@@ -5241,18 +5241,18 @@
         <v>0.3</v>
       </c>
       <c r="R58" s="30" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="S58" s="30"/>
       <c r="T58" s="30" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="U58" s="30">
         <v>1.78</v>
       </c>
       <c r="V58" s="32"/>
       <c r="X58" s="12" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="59" spans="1:27" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5266,22 +5266,22 @@
         <v>0</v>
       </c>
       <c r="D59" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="E59" s="18" t="s">
         <v>170</v>
-      </c>
-      <c r="E59" s="18" t="s">
-        <v>171</v>
       </c>
       <c r="F59" s="18">
         <v>2023</v>
       </c>
       <c r="G59" s="18" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H59" s="24" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I59" s="27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J59" s="30">
         <v>16755</v>
@@ -5299,7 +5299,7 @@
         <v>1</v>
       </c>
       <c r="O59" s="27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P59" s="30">
         <v>5</v>
@@ -5308,18 +5308,18 @@
         <v>0.19</v>
       </c>
       <c r="R59" s="30" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="S59" s="30"/>
       <c r="T59" s="30" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="U59" s="30">
         <v>1.84</v>
       </c>
       <c r="V59" s="32"/>
       <c r="X59" s="12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="60" spans="1:27" ht="70" x14ac:dyDescent="0.25">
@@ -5333,22 +5333,22 @@
         <v>0</v>
       </c>
       <c r="D60" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="E60" s="18" t="s">
         <v>170</v>
-      </c>
-      <c r="E60" s="18" t="s">
-        <v>171</v>
       </c>
       <c r="F60" s="18">
         <v>2023</v>
       </c>
       <c r="G60" s="18" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H60" s="24" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I60" s="24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J60" s="30">
         <v>16755</v>
@@ -5366,7 +5366,7 @@
         <v>1</v>
       </c>
       <c r="O60" s="24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P60" s="30">
         <v>5</v>
@@ -5375,18 +5375,18 @@
         <v>0.99</v>
       </c>
       <c r="R60" s="30" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="S60" s="30"/>
       <c r="T60" s="30" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="U60" s="30">
         <v>1.32</v>
       </c>
       <c r="V60" s="32"/>
       <c r="X60" s="12" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="61" spans="1:27" ht="70" x14ac:dyDescent="0.25">
@@ -5400,22 +5400,22 @@
         <v>0</v>
       </c>
       <c r="D61" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="E61" s="20" t="s">
         <v>170</v>
-      </c>
-      <c r="E61" s="20" t="s">
-        <v>171</v>
       </c>
       <c r="F61" s="20">
         <v>2023</v>
       </c>
       <c r="G61" s="20" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H61" s="27" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I61" s="27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J61" s="33">
         <v>16755</v>
@@ -5433,7 +5433,7 @@
         <v>1</v>
       </c>
       <c r="O61" s="27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P61" s="28">
         <v>7</v>
@@ -5442,18 +5442,18 @@
         <v>0.63</v>
       </c>
       <c r="R61" s="28" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="S61" s="28"/>
       <c r="T61" s="28" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="U61" s="28">
         <v>1.31</v>
       </c>
       <c r="V61" s="32"/>
       <c r="X61" s="12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="62" spans="1:27" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5467,22 +5467,22 @@
         <v>0</v>
       </c>
       <c r="D62" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="E62" s="20" t="s">
         <v>170</v>
-      </c>
-      <c r="E62" s="20" t="s">
-        <v>171</v>
       </c>
       <c r="F62" s="20">
         <v>2023</v>
       </c>
       <c r="G62" s="20" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H62" s="27" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I62" s="27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J62" s="28">
         <v>6040</v>
@@ -5500,7 +5500,7 @@
         <v>1</v>
       </c>
       <c r="O62" s="27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P62" s="28">
         <v>6</v>
@@ -5509,18 +5509,18 @@
         <v>0.75</v>
       </c>
       <c r="R62" s="28" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="S62" s="28"/>
       <c r="T62" s="28" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="U62" s="28">
         <v>0.68</v>
       </c>
       <c r="V62" s="32"/>
       <c r="X62" s="12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="63" spans="1:27" s="40" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.25">
@@ -5534,22 +5534,22 @@
         <v>0</v>
       </c>
       <c r="D63" s="42" t="s">
+        <v>137</v>
+      </c>
+      <c r="E63" s="42" t="s">
         <v>138</v>
-      </c>
-      <c r="E63" s="42" t="s">
-        <v>139</v>
       </c>
       <c r="F63" s="42">
         <v>2010</v>
       </c>
       <c r="G63" s="42" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H63" s="42" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I63" s="42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J63" s="42">
         <v>11472</v>
@@ -5567,24 +5567,24 @@
         <v>1</v>
       </c>
       <c r="O63" s="45" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="P63" s="42">
         <v>3</v>
       </c>
       <c r="Q63" s="42"/>
       <c r="R63" s="42" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="S63" s="42"/>
       <c r="T63" s="42"/>
       <c r="U63" s="42"/>
       <c r="V63" s="53"/>
       <c r="W63" s="39" t="s">
+        <v>141</v>
+      </c>
+      <c r="X63" s="39" t="s">
         <v>142</v>
-      </c>
-      <c r="X63" s="39" t="s">
-        <v>143</v>
       </c>
       <c r="Y63" s="39"/>
       <c r="Z63" s="39"/>
@@ -5601,22 +5601,22 @@
         <v>0</v>
       </c>
       <c r="D64" s="36" t="s">
+        <v>137</v>
+      </c>
+      <c r="E64" s="36" t="s">
         <v>138</v>
-      </c>
-      <c r="E64" s="36" t="s">
-        <v>139</v>
       </c>
       <c r="F64" s="36">
         <v>2010</v>
       </c>
       <c r="G64" s="36" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H64" s="36" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I64" s="36" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J64" s="50">
         <v>4400</v>
@@ -5630,14 +5630,14 @@
       </c>
       <c r="N64" s="36"/>
       <c r="O64" s="45" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="P64" s="36">
         <v>4</v>
       </c>
       <c r="Q64" s="36"/>
       <c r="R64" s="36" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="S64" s="36"/>
       <c r="T64" s="36"/>
@@ -5645,7 +5645,7 @@
       <c r="V64" s="53"/>
       <c r="W64" s="39"/>
       <c r="X64" s="39" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Y64" s="39"/>
       <c r="Z64" s="39"/>
@@ -5662,22 +5662,22 @@
         <v>0</v>
       </c>
       <c r="D65" s="45" t="s">
+        <v>137</v>
+      </c>
+      <c r="E65" s="45" t="s">
         <v>138</v>
-      </c>
-      <c r="E65" s="45" t="s">
-        <v>139</v>
       </c>
       <c r="F65" s="45">
         <v>2010</v>
       </c>
       <c r="G65" s="45" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H65" s="45" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I65" s="45" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J65" s="50">
         <v>4400</v>
@@ -5691,14 +5691,14 @@
       </c>
       <c r="N65" s="45"/>
       <c r="O65" s="56" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="P65" s="54">
         <v>3</v>
       </c>
       <c r="Q65" s="45"/>
       <c r="R65" s="54" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="S65" s="54"/>
       <c r="T65" s="54"/>
@@ -5706,7 +5706,7 @@
       <c r="V65" s="53"/>
       <c r="W65" s="39"/>
       <c r="X65" s="39" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Y65" s="39"/>
       <c r="Z65" s="39"/>
@@ -5723,22 +5723,22 @@
         <v>1</v>
       </c>
       <c r="D66" s="36" t="s">
+        <v>137</v>
+      </c>
+      <c r="E66" s="36" t="s">
         <v>138</v>
-      </c>
-      <c r="E66" s="36" t="s">
-        <v>139</v>
       </c>
       <c r="F66" s="36">
         <v>2010</v>
       </c>
       <c r="G66" s="36" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H66" s="36" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I66" s="36" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J66" s="42">
         <v>4597</v>
@@ -5756,14 +5756,14 @@
         <v>1</v>
       </c>
       <c r="O66" s="54" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="P66" s="36">
         <v>3</v>
       </c>
       <c r="Q66" s="36"/>
       <c r="R66" s="36" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="S66" s="36"/>
       <c r="T66" s="36"/>
@@ -5771,7 +5771,7 @@
       <c r="V66" s="53"/>
       <c r="W66" s="39"/>
       <c r="X66" s="39" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="Y66" s="39"/>
       <c r="Z66" s="39"/>
@@ -5788,22 +5788,22 @@
         <v>1</v>
       </c>
       <c r="D67" s="45" t="s">
+        <v>137</v>
+      </c>
+      <c r="E67" s="45" t="s">
         <v>138</v>
-      </c>
-      <c r="E67" s="45" t="s">
-        <v>139</v>
       </c>
       <c r="F67" s="45">
         <v>2010</v>
       </c>
       <c r="G67" s="45" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H67" s="45" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I67" s="42" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J67" s="45">
         <v>1825</v>
@@ -5821,14 +5821,14 @@
         <v>1</v>
       </c>
       <c r="O67" s="54" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="P67" s="54">
         <v>4</v>
       </c>
       <c r="Q67" s="54"/>
       <c r="R67" s="54" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="S67" s="54"/>
       <c r="T67" s="54"/>
@@ -5836,7 +5836,7 @@
       <c r="V67" s="53"/>
       <c r="W67" s="39"/>
       <c r="X67" s="39" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Y67" s="39"/>
       <c r="Z67" s="39"/>
@@ -5853,22 +5853,22 @@
         <v>1</v>
       </c>
       <c r="D68" s="50" t="s">
+        <v>137</v>
+      </c>
+      <c r="E68" s="50" t="s">
         <v>138</v>
-      </c>
-      <c r="E68" s="50" t="s">
-        <v>139</v>
       </c>
       <c r="F68" s="50">
         <v>2010</v>
       </c>
       <c r="G68" s="50" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H68" s="50" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I68" s="36" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J68" s="50">
         <v>1825</v>
@@ -5886,14 +5886,14 @@
         <v>1</v>
       </c>
       <c r="O68" s="54" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="P68" s="56">
         <v>3</v>
       </c>
       <c r="Q68" s="56"/>
       <c r="R68" s="56" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="S68" s="56"/>
       <c r="T68" s="56"/>
@@ -5901,7 +5901,7 @@
       <c r="V68" s="53"/>
       <c r="W68" s="39"/>
       <c r="X68" s="39" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Y68" s="39"/>
       <c r="Z68" s="39"/>
@@ -5918,22 +5918,22 @@
         <v>0</v>
       </c>
       <c r="D69" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="E69" s="9" t="s">
         <v>150</v>
-      </c>
-      <c r="E69" s="9" t="s">
-        <v>151</v>
       </c>
       <c r="F69" s="18">
         <v>2016</v>
       </c>
       <c r="G69" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="H69" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="H69" s="9" t="s">
-        <v>111</v>
-      </c>
       <c r="I69" s="15" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J69" s="9">
         <v>1139</v>
@@ -5949,32 +5949,32 @@
       </c>
       <c r="N69" s="15"/>
       <c r="O69" s="15" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="P69" s="9">
         <v>8</v>
       </c>
       <c r="Q69" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="R69" s="9" t="s">
         <v>154</v>
-      </c>
-      <c r="R69" s="9" t="s">
-        <v>155</v>
       </c>
       <c r="S69" s="9"/>
       <c r="T69" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="U69" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="U69" s="9" t="s">
+      <c r="V69" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="V69" s="11" t="s">
-        <v>158</v>
-      </c>
       <c r="X69" s="12" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="Y69" s="12" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="70" spans="1:27" s="40" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5988,22 +5988,22 @@
         <v>0</v>
       </c>
       <c r="D70" s="51" t="s">
+        <v>158</v>
+      </c>
+      <c r="E70" s="51" t="s">
         <v>159</v>
-      </c>
-      <c r="E70" s="51" t="s">
-        <v>160</v>
       </c>
       <c r="F70" s="51">
         <v>2008</v>
       </c>
       <c r="G70" s="51" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H70" s="36" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I70" s="36" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J70" s="36">
         <v>456</v>
@@ -6021,7 +6021,7 @@
         <v>0</v>
       </c>
       <c r="O70" s="36" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="P70" s="36">
         <v>4</v>
@@ -6033,13 +6033,13 @@
       <c r="U70" s="36"/>
       <c r="V70" s="38"/>
       <c r="W70" s="39" t="s">
+        <v>219</v>
+      </c>
+      <c r="X70" s="39" t="s">
         <v>220</v>
       </c>
-      <c r="X70" s="39" t="s">
-        <v>221</v>
-      </c>
       <c r="Y70" s="39" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="Z70" s="39"/>
       <c r="AA70" s="39"/>
@@ -6055,22 +6055,22 @@
         <v>0</v>
       </c>
       <c r="D71" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="E71" s="20" t="s">
         <v>108</v>
-      </c>
-      <c r="E71" s="20" t="s">
-        <v>109</v>
       </c>
       <c r="F71" s="15">
         <v>2008</v>
       </c>
       <c r="G71" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="H71" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="H71" s="15" t="s">
-        <v>111</v>
-      </c>
       <c r="I71" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J71" s="15">
         <v>2254</v>
@@ -6088,12 +6088,12 @@
         <v>1</v>
       </c>
       <c r="O71" s="15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="P71" s="15"/>
       <c r="Q71" s="15"/>
       <c r="R71" s="15" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="S71" s="15"/>
       <c r="T71" s="15"/>
@@ -6102,7 +6102,7 @@
       </c>
       <c r="V71" s="11"/>
       <c r="X71" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="72" spans="1:27" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6116,22 +6116,22 @@
         <v>0</v>
       </c>
       <c r="D72" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="E72" s="18" t="s">
         <v>108</v>
-      </c>
-      <c r="E72" s="18" t="s">
-        <v>109</v>
       </c>
       <c r="F72" s="24">
         <v>2008</v>
       </c>
       <c r="G72" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="H72" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="H72" s="24" t="s">
-        <v>111</v>
-      </c>
       <c r="I72" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J72" s="24">
         <v>2174</v>
@@ -6149,12 +6149,12 @@
         <v>1</v>
       </c>
       <c r="O72" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="P72" s="18"/>
       <c r="Q72" s="18"/>
       <c r="R72" s="18" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="S72" s="18"/>
       <c r="T72" s="24"/>
@@ -6163,7 +6163,7 @@
       </c>
       <c r="V72" s="25"/>
       <c r="X72" s="12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="73" spans="1:27" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6177,22 +6177,22 @@
         <v>0</v>
       </c>
       <c r="D73" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="E73" s="20" t="s">
         <v>108</v>
-      </c>
-      <c r="E73" s="20" t="s">
-        <v>109</v>
       </c>
       <c r="F73" s="27">
         <v>2008</v>
       </c>
       <c r="G73" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="H73" s="27" t="s">
         <v>110</v>
       </c>
-      <c r="H73" s="27" t="s">
-        <v>111</v>
-      </c>
       <c r="I73" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J73" s="27">
         <v>1230</v>
@@ -6210,12 +6210,12 @@
         <v>1</v>
       </c>
       <c r="O73" s="15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="P73" s="20"/>
       <c r="Q73" s="20"/>
       <c r="R73" s="20" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="S73" s="20"/>
       <c r="T73" s="27"/>
@@ -6224,7 +6224,7 @@
       </c>
       <c r="V73" s="25"/>
       <c r="X73" s="12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="74" spans="1:27" ht="28" x14ac:dyDescent="0.25">
@@ -6238,22 +6238,22 @@
         <v>0</v>
       </c>
       <c r="D74" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="E74" s="18" t="s">
         <v>108</v>
-      </c>
-      <c r="E74" s="18" t="s">
-        <v>109</v>
       </c>
       <c r="F74" s="24">
         <v>2008</v>
       </c>
       <c r="G74" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="H74" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="H74" s="24" t="s">
-        <v>111</v>
-      </c>
       <c r="I74" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J74" s="24">
         <v>1562</v>
@@ -6271,7 +6271,7 @@
         <v>1</v>
       </c>
       <c r="O74" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P74" s="18"/>
       <c r="Q74" s="18"/>
@@ -6285,7 +6285,7 @@
       </c>
       <c r="V74" s="25"/>
       <c r="X74" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="75" spans="1:27" ht="28" x14ac:dyDescent="0.25">
@@ -6299,22 +6299,22 @@
         <v>0</v>
       </c>
       <c r="D75" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="E75" s="20" t="s">
         <v>108</v>
-      </c>
-      <c r="E75" s="20" t="s">
-        <v>109</v>
       </c>
       <c r="F75" s="27">
         <v>2008</v>
       </c>
       <c r="G75" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="H75" s="27" t="s">
         <v>110</v>
       </c>
-      <c r="H75" s="27" t="s">
-        <v>111</v>
-      </c>
       <c r="I75" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J75" s="27">
         <v>834</v>
@@ -6332,7 +6332,7 @@
         <v>1</v>
       </c>
       <c r="O75" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P75" s="20"/>
       <c r="Q75" s="20"/>
@@ -6346,7 +6346,7 @@
       </c>
       <c r="V75" s="25"/>
       <c r="X75" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="76" spans="1:27" ht="28" x14ac:dyDescent="0.25">
@@ -6360,22 +6360,22 @@
         <v>0</v>
       </c>
       <c r="D76" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="E76" s="20" t="s">
         <v>108</v>
-      </c>
-      <c r="E76" s="20" t="s">
-        <v>109</v>
       </c>
       <c r="F76" s="27">
         <v>2008</v>
       </c>
       <c r="G76" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="H76" s="27" t="s">
         <v>110</v>
       </c>
-      <c r="H76" s="27" t="s">
-        <v>111</v>
-      </c>
       <c r="I76" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J76" s="24">
         <v>946</v>
@@ -6393,12 +6393,12 @@
         <v>1</v>
       </c>
       <c r="O76" s="15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="P76" s="20"/>
       <c r="Q76" s="20"/>
       <c r="R76" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="S76" s="20"/>
       <c r="T76" s="27"/>
@@ -6407,7 +6407,7 @@
       </c>
       <c r="V76" s="25"/>
       <c r="X76" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="77" spans="1:27" ht="28" x14ac:dyDescent="0.25">
@@ -6421,22 +6421,22 @@
         <v>0</v>
       </c>
       <c r="D77" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="E77" s="20" t="s">
         <v>108</v>
-      </c>
-      <c r="E77" s="20" t="s">
-        <v>109</v>
       </c>
       <c r="F77" s="27">
         <v>2008</v>
       </c>
       <c r="G77" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="H77" s="27" t="s">
         <v>110</v>
       </c>
-      <c r="H77" s="27" t="s">
-        <v>111</v>
-      </c>
       <c r="I77" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J77" s="27">
         <v>481</v>
@@ -6454,7 +6454,7 @@
         <v>1</v>
       </c>
       <c r="O77" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P77" s="20"/>
       <c r="Q77" s="20"/>
@@ -6468,7 +6468,7 @@
       </c>
       <c r="V77" s="25"/>
       <c r="X77" s="12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="78" spans="1:27" s="40" customFormat="1" ht="28" x14ac:dyDescent="0.25">
@@ -6482,22 +6482,22 @@
         <v>0</v>
       </c>
       <c r="D78" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="E78" s="42" t="s">
         <v>21</v>
-      </c>
-      <c r="E78" s="42" t="s">
-        <v>22</v>
       </c>
       <c r="F78" s="42">
         <v>2012</v>
       </c>
       <c r="G78" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="H78" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="H78" s="42" t="s">
+      <c r="I78" s="42" t="s">
         <v>24</v>
-      </c>
-      <c r="I78" s="42" t="s">
-        <v>25</v>
       </c>
       <c r="J78" s="42">
         <v>671</v>
@@ -6515,34 +6515,34 @@
         <v>1</v>
       </c>
       <c r="O78" s="42" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P78" s="42">
         <v>4</v>
       </c>
       <c r="Q78" s="42"/>
       <c r="R78" s="42" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S78" s="42"/>
       <c r="T78" s="42"/>
       <c r="U78" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="V78" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="V78" s="38" t="s">
-        <v>29</v>
-      </c>
       <c r="W78" s="39" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="X78" s="39" t="s">
+        <v>221</v>
+      </c>
+      <c r="Y78" s="39" t="s">
         <v>222</v>
       </c>
-      <c r="Y78" s="39" t="s">
-        <v>223</v>
-      </c>
       <c r="Z78" s="39" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AA78" s="39"/>
     </row>
@@ -6557,22 +6557,22 @@
         <v>0</v>
       </c>
       <c r="D79" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="E79" s="42" t="s">
         <v>21</v>
-      </c>
-      <c r="E79" s="42" t="s">
-        <v>22</v>
       </c>
       <c r="F79" s="42">
         <v>2012</v>
       </c>
       <c r="G79" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="H79" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="H79" s="42" t="s">
+      <c r="I79" s="42" t="s">
         <v>24</v>
-      </c>
-      <c r="I79" s="42" t="s">
-        <v>25</v>
       </c>
       <c r="J79" s="42">
         <v>671</v>
@@ -6590,32 +6590,32 @@
         <v>1</v>
       </c>
       <c r="O79" s="42" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P79" s="42">
         <v>3</v>
       </c>
       <c r="Q79" s="42"/>
       <c r="R79" s="42" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="S79" s="42"/>
       <c r="T79" s="42"/>
       <c r="U79" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="V79" s="38" t="s">
         <v>31</v>
-      </c>
-      <c r="V79" s="38" t="s">
-        <v>32</v>
       </c>
       <c r="W79" s="39"/>
       <c r="X79" s="39" t="s">
+        <v>221</v>
+      </c>
+      <c r="Y79" s="39" t="s">
         <v>222</v>
       </c>
-      <c r="Y79" s="39" t="s">
-        <v>223</v>
-      </c>
       <c r="Z79" s="39" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AA79" s="39"/>
     </row>
@@ -6630,22 +6630,22 @@
         <v>1</v>
       </c>
       <c r="D80" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="E80" s="42" t="s">
         <v>21</v>
-      </c>
-      <c r="E80" s="42" t="s">
-        <v>22</v>
       </c>
       <c r="F80" s="42">
         <v>2012</v>
       </c>
       <c r="G80" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="H80" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="H80" s="42" t="s">
+      <c r="I80" s="42" t="s">
         <v>24</v>
-      </c>
-      <c r="I80" s="42" t="s">
-        <v>25</v>
       </c>
       <c r="J80" s="42">
         <v>488</v>
@@ -6663,29 +6663,29 @@
         <v>1</v>
       </c>
       <c r="O80" s="42" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P80" s="42">
         <v>4</v>
       </c>
       <c r="Q80" s="42"/>
       <c r="R80" s="42" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S80" s="42"/>
       <c r="T80" s="42"/>
       <c r="U80" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="V80" s="38" t="s">
         <v>28</v>
-      </c>
-      <c r="V80" s="38" t="s">
-        <v>29</v>
       </c>
       <c r="W80" s="39"/>
       <c r="X80" s="39" t="s">
+        <v>221</v>
+      </c>
+      <c r="Y80" s="39" t="s">
         <v>222</v>
-      </c>
-      <c r="Y80" s="39" t="s">
-        <v>223</v>
       </c>
       <c r="Z80" s="39"/>
       <c r="AA80" s="39"/>
@@ -6701,22 +6701,22 @@
         <v>1</v>
       </c>
       <c r="D81" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="E81" s="42" t="s">
         <v>21</v>
-      </c>
-      <c r="E81" s="42" t="s">
-        <v>22</v>
       </c>
       <c r="F81" s="42">
         <v>2012</v>
       </c>
       <c r="G81" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="H81" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="H81" s="42" t="s">
+      <c r="I81" s="42" t="s">
         <v>24</v>
-      </c>
-      <c r="I81" s="42" t="s">
-        <v>25</v>
       </c>
       <c r="J81" s="42">
         <v>520</v>
@@ -6734,27 +6734,27 @@
         <v>1</v>
       </c>
       <c r="O81" s="42" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P81" s="42">
         <v>3</v>
       </c>
       <c r="Q81" s="42"/>
       <c r="R81" s="42" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S81" s="42"/>
       <c r="T81" s="42"/>
       <c r="U81" s="42" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="V81" s="38"/>
       <c r="W81" s="39"/>
       <c r="X81" s="39" t="s">
+        <v>221</v>
+      </c>
+      <c r="Y81" s="39" t="s">
         <v>222</v>
-      </c>
-      <c r="Y81" s="39" t="s">
-        <v>223</v>
       </c>
       <c r="Z81" s="39"/>
       <c r="AA81" s="39"/>
@@ -6770,22 +6770,22 @@
         <v>1</v>
       </c>
       <c r="D82" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="E82" s="42" t="s">
         <v>21</v>
-      </c>
-      <c r="E82" s="42" t="s">
-        <v>22</v>
       </c>
       <c r="F82" s="42">
         <v>2012</v>
       </c>
       <c r="G82" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="H82" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="H82" s="42" t="s">
+      <c r="I82" s="42" t="s">
         <v>24</v>
-      </c>
-      <c r="I82" s="42" t="s">
-        <v>25</v>
       </c>
       <c r="J82" s="36">
         <v>517</v>
@@ -6799,29 +6799,29 @@
       </c>
       <c r="N82" s="42"/>
       <c r="O82" s="42" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P82" s="42">
         <v>4</v>
       </c>
       <c r="Q82" s="42"/>
       <c r="R82" s="42" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="S82" s="42"/>
       <c r="T82" s="42"/>
       <c r="U82" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="V82" s="38" t="s">
         <v>28</v>
-      </c>
-      <c r="V82" s="38" t="s">
-        <v>29</v>
       </c>
       <c r="W82" s="39"/>
       <c r="X82" s="39" t="s">
+        <v>221</v>
+      </c>
+      <c r="Y82" s="39" t="s">
         <v>222</v>
-      </c>
-      <c r="Y82" s="39" t="s">
-        <v>223</v>
       </c>
       <c r="Z82" s="39"/>
       <c r="AA82" s="39"/>
@@ -6837,22 +6837,22 @@
         <v>1</v>
       </c>
       <c r="D83" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="E83" s="42" t="s">
         <v>21</v>
-      </c>
-      <c r="E83" s="42" t="s">
-        <v>22</v>
       </c>
       <c r="F83" s="42">
         <v>2012</v>
       </c>
       <c r="G83" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="H83" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="H83" s="42" t="s">
+      <c r="I83" s="42" t="s">
         <v>24</v>
-      </c>
-      <c r="I83" s="42" t="s">
-        <v>25</v>
       </c>
       <c r="J83" s="42">
         <v>591</v>
@@ -6866,29 +6866,29 @@
       </c>
       <c r="N83" s="42"/>
       <c r="O83" s="42" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P83" s="42">
         <v>3</v>
       </c>
       <c r="Q83" s="42"/>
       <c r="R83" s="42" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="S83" s="42"/>
       <c r="T83" s="42"/>
       <c r="U83" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="V83" s="38" t="s">
         <v>31</v>
-      </c>
-      <c r="V83" s="38" t="s">
-        <v>32</v>
       </c>
       <c r="W83" s="39"/>
       <c r="X83" s="39" t="s">
+        <v>221</v>
+      </c>
+      <c r="Y83" s="39" t="s">
         <v>222</v>
-      </c>
-      <c r="Y83" s="39" t="s">
-        <v>223</v>
       </c>
       <c r="Z83" s="39"/>
       <c r="AA83" s="39"/>
@@ -6904,22 +6904,22 @@
         <v>0</v>
       </c>
       <c r="D84" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="E84" s="18" t="s">
         <v>201</v>
-      </c>
-      <c r="E84" s="18" t="s">
-        <v>202</v>
       </c>
       <c r="F84" s="18">
         <v>2004</v>
       </c>
       <c r="G84" s="18" t="s">
+        <v>202</v>
+      </c>
+      <c r="H84" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="H84" s="9" t="s">
-        <v>204</v>
-      </c>
       <c r="I84" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J84" s="9">
         <v>620</v>
@@ -6937,7 +6937,7 @@
         <v>1</v>
       </c>
       <c r="O84" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P84" s="9">
         <v>2</v>
@@ -6947,14 +6947,14 @@
       <c r="S84" s="9"/>
       <c r="T84" s="9"/>
       <c r="U84" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="V84" s="11"/>
       <c r="W84" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="X84" s="12" t="s">
         <v>206</v>
-      </c>
-      <c r="X84" s="12" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="85" spans="1:27" ht="42" x14ac:dyDescent="0.25">
@@ -6968,22 +6968,22 @@
         <v>0</v>
       </c>
       <c r="D85" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="E85" s="20" t="s">
         <v>201</v>
-      </c>
-      <c r="E85" s="20" t="s">
-        <v>202</v>
       </c>
       <c r="F85" s="20">
         <v>2004</v>
       </c>
       <c r="G85" s="20" t="s">
+        <v>202</v>
+      </c>
+      <c r="H85" s="15" t="s">
         <v>203</v>
       </c>
-      <c r="H85" s="15" t="s">
-        <v>204</v>
-      </c>
       <c r="I85" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J85" s="15">
         <v>623</v>
@@ -7001,7 +7001,7 @@
         <v>1</v>
       </c>
       <c r="O85" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P85" s="15">
         <v>2</v>
@@ -7011,11 +7011,11 @@
       <c r="S85" s="15"/>
       <c r="T85" s="15"/>
       <c r="U85" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="V85" s="11"/>
       <c r="X85" s="12" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="86" spans="1:27" s="40" customFormat="1" ht="42" x14ac:dyDescent="0.25">
@@ -7029,22 +7029,22 @@
         <v>0</v>
       </c>
       <c r="D86" s="60" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E86" s="61" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F86" s="61">
         <v>2011</v>
       </c>
       <c r="G86" s="61" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H86" s="60" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I86" s="60" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J86" s="60">
         <v>601</v>
@@ -7062,7 +7062,7 @@
         <v>1</v>
       </c>
       <c r="O86" s="60" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P86" s="60">
         <v>2</v>
@@ -7072,12 +7072,12 @@
       <c r="S86" s="63"/>
       <c r="T86" s="60"/>
       <c r="U86" s="60" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="V86" s="38"/>
       <c r="W86" s="39"/>
       <c r="X86" s="39" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="Y86" s="39"/>
       <c r="Z86" s="39"/>
